--- a/images/clut.xlsx
+++ b/images/clut.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="345" windowWidth="16035" windowHeight="7725"/>
+    <workbookView xWindow="360" yWindow="60" windowWidth="7635" windowHeight="4185"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,10 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
-  <si>
-    <t>organic(orange)</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="9">
   <si>
     <t>mixture(green)</t>
   </si>
@@ -30,16 +27,22 @@
     <t>R</t>
   </si>
   <si>
-    <t>G</t>
+    <t>g</t>
   </si>
   <si>
     <t>b</t>
   </si>
   <si>
-    <t>g</t>
+    <t>G</t>
   </si>
   <si>
     <t>B</t>
+  </si>
+  <si>
+    <t>orangenew</t>
+  </si>
+  <si>
+    <t>red</t>
   </si>
 </sst>
 </file>
@@ -381,243 +384,309 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K258"/>
+  <dimension ref="A1:O258"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="A77" sqref="A77"/>
+    <sheetView tabSelected="1" topLeftCell="H247" workbookViewId="0">
+      <selection activeCell="O258" sqref="O258"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="I1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="G2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="I2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" t="s">
+      <c r="K2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N2" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>255</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>255</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>255</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6">
         <v>3</v>
       </c>
-      <c r="F2" t="s">
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>255</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>255</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>255</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>13</v>
+      </c>
+      <c r="B9">
         <v>6</v>
       </c>
-      <c r="G2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J2" t="s">
-        <v>4</v>
-      </c>
-      <c r="K2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>0</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>0</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>0</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>0</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>0</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>2.1</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
       <c r="C9">
-        <v>0.34</v>
+        <v>0</v>
       </c>
       <c r="E9">
         <v>0.34</v>
@@ -637,16 +706,25 @@
       <c r="K9">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M9">
+        <v>255</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>4.2</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C10">
-        <v>0.68</v>
+        <v>0</v>
       </c>
       <c r="E10">
         <v>0.68</v>
@@ -666,16 +744,25 @@
       <c r="K10">
         <v>4.2</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M10">
+        <v>255</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>6.28</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -695,16 +782,25 @@
       <c r="K11">
         <v>6.28</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M11">
+        <v>255</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>8.35</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.5</v>
+        <v>9</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -724,16 +820,25 @@
       <c r="K12">
         <v>8.35</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M12">
+        <v>255</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>10.4</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>1.5</v>
+        <v>10</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -753,16 +858,25 @@
       <c r="K13">
         <v>10.4</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M13">
+        <v>255</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>12.5</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>2.5</v>
+        <v>11</v>
       </c>
       <c r="C14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E14">
         <v>2</v>
@@ -782,16 +896,25 @@
       <c r="K14">
         <v>12.5</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M14">
+        <v>255</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>14.5</v>
+        <v>21</v>
       </c>
       <c r="B15">
-        <v>3.5</v>
+        <v>12</v>
       </c>
       <c r="C15">
-        <v>2.2999999999999998</v>
+        <v>0</v>
       </c>
       <c r="E15">
         <v>2.2999999999999998</v>
@@ -811,16 +934,25 @@
       <c r="K15">
         <v>14.5</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M15">
+        <v>255</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>16.5</v>
+        <v>23</v>
       </c>
       <c r="B16">
-        <v>4.5</v>
+        <v>13</v>
       </c>
       <c r="C16">
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="E16">
         <v>2.7</v>
@@ -840,16 +972,25 @@
       <c r="K16">
         <v>16.5</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M16">
+        <v>255</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>18.5</v>
+        <v>26</v>
       </c>
       <c r="B17">
-        <v>5.5</v>
+        <v>14</v>
       </c>
       <c r="C17">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E17">
         <v>3</v>
@@ -869,16 +1010,25 @@
       <c r="K17">
         <v>18.5</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M17">
+        <v>255</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>20.5</v>
+        <v>28</v>
       </c>
       <c r="B18">
-        <v>6.5</v>
+        <v>15</v>
       </c>
       <c r="C18">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="E18">
         <v>3.4</v>
@@ -898,16 +1048,25 @@
       <c r="K18">
         <v>20.5</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M18">
+        <v>255</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>22.5</v>
+        <v>29</v>
       </c>
       <c r="B19">
-        <v>7.5</v>
+        <v>16</v>
       </c>
       <c r="C19">
-        <v>3.7</v>
+        <v>0</v>
       </c>
       <c r="E19">
         <v>3.7</v>
@@ -927,16 +1086,25 @@
       <c r="K19">
         <v>22.5</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M19">
+        <v>255</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>24.5</v>
+        <v>30</v>
       </c>
       <c r="B20">
-        <v>8.5</v>
+        <v>17</v>
       </c>
       <c r="C20">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E20">
         <v>4</v>
@@ -956,16 +1124,25 @@
       <c r="K20">
         <v>24.5</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M20">
+        <v>255</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>26.5</v>
+        <v>32</v>
       </c>
       <c r="B21">
-        <v>9.5</v>
+        <v>18</v>
       </c>
       <c r="C21">
-        <v>4.4000000000000004</v>
+        <v>0</v>
       </c>
       <c r="E21">
         <v>4.4000000000000004</v>
@@ -985,16 +1162,25 @@
       <c r="K21">
         <v>26.5</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M21">
+        <v>255</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>28.5</v>
+        <v>34</v>
       </c>
       <c r="B22">
-        <v>10.5</v>
+        <v>19</v>
       </c>
       <c r="C22">
-        <v>4.7</v>
+        <v>0</v>
       </c>
       <c r="E22">
         <v>4.7</v>
@@ -1014,16 +1200,25 @@
       <c r="K22">
         <v>28.5</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M22">
+        <v>255</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B23">
-        <v>11.5</v>
+        <v>20</v>
       </c>
       <c r="C23">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E23">
         <v>5</v>
@@ -1043,16 +1238,25 @@
       <c r="K23">
         <v>30</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M23">
+        <v>255</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B24">
-        <v>12.5</v>
+        <v>21</v>
       </c>
       <c r="C24">
-        <v>5.4</v>
+        <v>0</v>
       </c>
       <c r="E24">
         <v>5.4</v>
@@ -1072,16 +1276,25 @@
       <c r="K24">
         <v>32</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M24">
+        <v>255</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B25">
-        <v>13.5</v>
+        <v>22</v>
       </c>
       <c r="C25">
-        <v>5.7</v>
+        <v>0</v>
       </c>
       <c r="E25">
         <v>5.7</v>
@@ -1101,16 +1314,25 @@
       <c r="K25">
         <v>34</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M25">
+        <v>255</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="B26">
-        <v>14.5</v>
+        <v>23</v>
       </c>
       <c r="C26">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E26">
         <v>6</v>
@@ -1130,16 +1352,25 @@
       <c r="K26">
         <v>36</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M26">
+        <v>255</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B27">
-        <v>15.5</v>
+        <v>24</v>
       </c>
       <c r="C27">
-        <v>6.4</v>
+        <v>0</v>
       </c>
       <c r="E27">
         <v>6.4</v>
@@ -1159,16 +1390,25 @@
       <c r="K27">
         <v>38</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M27">
+        <v>255</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B28">
-        <v>16.5</v>
+        <v>25</v>
       </c>
       <c r="C28">
-        <v>6.7</v>
+        <v>0</v>
       </c>
       <c r="E28">
         <v>6.7</v>
@@ -1188,16 +1428,25 @@
       <c r="K28">
         <v>40</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M28">
+        <v>255</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B29">
-        <v>17.5</v>
+        <v>26</v>
       </c>
       <c r="C29">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E29">
         <v>7</v>
@@ -1217,16 +1466,25 @@
       <c r="K29">
         <v>42</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M29">
+        <v>255</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B30">
-        <v>18.5</v>
+        <v>27</v>
       </c>
       <c r="C30">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="E30">
         <v>7.4</v>
@@ -1246,16 +1504,25 @@
       <c r="K30">
         <v>44</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M30">
+        <v>255</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B31">
-        <v>19.5</v>
+        <v>28</v>
       </c>
       <c r="C31">
-        <v>7.7</v>
+        <v>0</v>
       </c>
       <c r="E31">
         <v>7.7</v>
@@ -1275,16 +1542,25 @@
       <c r="K31">
         <v>46</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M31">
+        <v>255</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B32">
-        <v>20.5</v>
+        <v>29</v>
       </c>
       <c r="C32">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E32">
         <v>8</v>
@@ -1304,16 +1580,25 @@
       <c r="K32">
         <v>48</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M32">
+        <v>255</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B33">
-        <v>21.5</v>
+        <v>30</v>
       </c>
       <c r="C33">
-        <v>8.4</v>
+        <v>0</v>
       </c>
       <c r="E33">
         <v>8.4</v>
@@ -1333,16 +1618,25 @@
       <c r="K33">
         <v>49</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M33">
+        <v>255</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B34">
-        <v>22.5</v>
+        <v>31</v>
       </c>
       <c r="C34">
-        <v>8.6999999999999993</v>
+        <v>0</v>
       </c>
       <c r="E34">
         <v>8.6999999999999993</v>
@@ -1362,16 +1656,25 @@
       <c r="K34">
         <v>51</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M34">
+        <v>255</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B35">
-        <v>23.5</v>
+        <v>32</v>
       </c>
       <c r="C35">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E35">
         <v>9</v>
@@ -1391,16 +1694,25 @@
       <c r="K35">
         <v>55</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M35">
+        <v>255</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B36">
-        <v>24.5</v>
+        <v>33</v>
       </c>
       <c r="C36">
-        <v>9.4</v>
+        <v>0</v>
       </c>
       <c r="E36">
         <v>9.4</v>
@@ -1420,16 +1732,25 @@
       <c r="K36">
         <v>56</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M36">
+        <v>255</v>
+      </c>
+      <c r="N36">
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B37">
-        <v>25.5</v>
+        <v>34</v>
       </c>
       <c r="C37">
-        <v>9.6999999999999993</v>
+        <v>0</v>
       </c>
       <c r="E37">
         <v>9.6999999999999993</v>
@@ -1449,16 +1770,25 @@
       <c r="K37">
         <v>57</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M37">
+        <v>255</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B38">
-        <v>26.5</v>
+        <v>35</v>
       </c>
       <c r="C38">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E38">
         <v>10</v>
@@ -1478,16 +1808,25 @@
       <c r="K38">
         <v>58</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M38">
+        <v>255</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B39">
-        <v>27.5</v>
+        <v>36</v>
       </c>
       <c r="C39">
-        <v>10.4</v>
+        <v>0</v>
       </c>
       <c r="E39">
         <v>10.4</v>
@@ -1507,16 +1846,25 @@
       <c r="K39">
         <v>60</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M39">
+        <v>255</v>
+      </c>
+      <c r="N39">
+        <v>0</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B40">
-        <v>28.5</v>
+        <v>37</v>
       </c>
       <c r="C40">
-        <v>10.7</v>
+        <v>0</v>
       </c>
       <c r="E40">
         <v>10.7</v>
@@ -1536,16 +1884,25 @@
       <c r="K40">
         <v>62</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M40">
+        <v>255</v>
+      </c>
+      <c r="N40">
+        <v>0</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B41">
-        <v>29.5</v>
+        <v>38</v>
       </c>
       <c r="C41">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E41">
         <v>11</v>
@@ -1565,16 +1922,25 @@
       <c r="K41">
         <v>64</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M41">
+        <v>255</v>
+      </c>
+      <c r="N41">
+        <v>0</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="B42">
-        <v>30.5</v>
+        <v>39</v>
       </c>
       <c r="C42">
-        <v>11.4</v>
+        <v>0</v>
       </c>
       <c r="E42">
         <v>11.4</v>
@@ -1594,16 +1960,25 @@
       <c r="K42">
         <v>65</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M42">
+        <v>255</v>
+      </c>
+      <c r="N42">
+        <v>0</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B43">
-        <v>31.5</v>
+        <v>40</v>
       </c>
       <c r="C43">
-        <v>11.7</v>
+        <v>0</v>
       </c>
       <c r="E43">
         <v>11.7</v>
@@ -1623,16 +1998,25 @@
       <c r="K43">
         <v>67</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M43">
+        <v>255</v>
+      </c>
+      <c r="N43">
+        <v>0</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B44">
-        <v>32.5</v>
+        <v>41</v>
       </c>
       <c r="C44">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E44">
         <v>12</v>
@@ -1652,16 +2036,25 @@
       <c r="K44">
         <v>69</v>
       </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M44">
+        <v>255</v>
+      </c>
+      <c r="N44">
+        <v>0</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B45">
-        <v>33.5</v>
+        <v>42</v>
       </c>
       <c r="C45">
-        <v>12.4</v>
+        <v>0</v>
       </c>
       <c r="E45">
         <v>12.4</v>
@@ -1681,16 +2074,25 @@
       <c r="K45">
         <v>71</v>
       </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M45">
+        <v>255</v>
+      </c>
+      <c r="N45">
+        <v>0</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B46">
-        <v>34.5</v>
+        <v>43</v>
       </c>
       <c r="C46">
-        <v>12.7</v>
+        <v>0</v>
       </c>
       <c r="E46">
         <v>12.7</v>
@@ -1710,16 +2112,25 @@
       <c r="K46">
         <v>72</v>
       </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M46">
+        <v>255</v>
+      </c>
+      <c r="N46">
+        <v>0</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B47">
-        <v>35.5</v>
+        <v>44</v>
       </c>
       <c r="C47">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="E47">
         <v>13</v>
@@ -1739,16 +2150,25 @@
       <c r="K47">
         <v>74</v>
       </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M47">
+        <v>255</v>
+      </c>
+      <c r="N47">
+        <v>0</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B48">
-        <v>36.5</v>
+        <v>45</v>
       </c>
       <c r="C48">
-        <v>13.4</v>
+        <v>0</v>
       </c>
       <c r="E48">
         <v>13.4</v>
@@ -1768,16 +2188,25 @@
       <c r="K48">
         <v>76</v>
       </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M48">
+        <v>255</v>
+      </c>
+      <c r="N48">
+        <v>0</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B49">
-        <v>37.5</v>
+        <v>46</v>
       </c>
       <c r="C49">
-        <v>13.7</v>
+        <v>0</v>
       </c>
       <c r="E49">
         <v>13.7</v>
@@ -1797,16 +2226,25 @@
       <c r="K49">
         <v>78</v>
       </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M49">
+        <v>255</v>
+      </c>
+      <c r="N49">
+        <v>0</v>
+      </c>
+      <c r="O49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="B50">
-        <v>38.5</v>
+        <v>47</v>
       </c>
       <c r="C50">
-        <v>13.9</v>
+        <v>0</v>
       </c>
       <c r="E50">
         <v>13.9</v>
@@ -1826,16 +2264,25 @@
       <c r="K50">
         <v>79</v>
       </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M50">
+        <v>255</v>
+      </c>
+      <c r="N50">
+        <v>0</v>
+      </c>
+      <c r="O50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B51">
-        <v>39.5</v>
+        <v>48</v>
       </c>
       <c r="C51">
-        <v>14.2</v>
+        <v>0</v>
       </c>
       <c r="E51">
         <v>14.2</v>
@@ -1855,16 +2302,25 @@
       <c r="K51">
         <v>81</v>
       </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M51">
+        <v>255</v>
+      </c>
+      <c r="N51">
+        <v>0</v>
+      </c>
+      <c r="O51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B52">
-        <v>40.5</v>
+        <v>49</v>
       </c>
       <c r="C52">
-        <v>14.5</v>
+        <v>0</v>
       </c>
       <c r="E52">
         <v>14.5</v>
@@ -1884,16 +2340,25 @@
       <c r="K52">
         <v>83</v>
       </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M52">
+        <v>255</v>
+      </c>
+      <c r="N52">
+        <v>0</v>
+      </c>
+      <c r="O52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="B53">
-        <v>41.5</v>
+        <v>50</v>
       </c>
       <c r="C53">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E53">
         <v>15</v>
@@ -1913,16 +2378,25 @@
       <c r="K53">
         <v>84</v>
       </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M53">
+        <v>255</v>
+      </c>
+      <c r="N53">
+        <v>0</v>
+      </c>
+      <c r="O53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B54">
-        <v>42.5</v>
+        <v>51</v>
       </c>
       <c r="C54">
-        <v>15.4</v>
+        <v>0</v>
       </c>
       <c r="E54">
         <v>15.4</v>
@@ -1942,16 +2416,25 @@
       <c r="K54">
         <v>86</v>
       </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M54">
+        <v>255</v>
+      </c>
+      <c r="N54">
+        <v>0</v>
+      </c>
+      <c r="O54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="B55">
-        <v>43.5</v>
+        <v>52</v>
       </c>
       <c r="C55">
-        <v>15.6</v>
+        <v>0</v>
       </c>
       <c r="E55">
         <v>15.6</v>
@@ -1971,16 +2454,25 @@
       <c r="K55">
         <v>88</v>
       </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M55">
+        <v>255</v>
+      </c>
+      <c r="N55">
+        <v>0</v>
+      </c>
+      <c r="O55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="B56">
-        <v>44.5</v>
+        <v>53</v>
       </c>
       <c r="C56">
-        <v>15.9</v>
+        <v>0</v>
       </c>
       <c r="E56">
         <v>15.9</v>
@@ -2000,16 +2492,25 @@
       <c r="K56">
         <v>90</v>
       </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M56">
+        <v>255</v>
+      </c>
+      <c r="N56">
+        <v>0</v>
+      </c>
+      <c r="O56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="B57">
-        <v>45.5</v>
+        <v>54</v>
       </c>
       <c r="C57">
-        <v>16.2</v>
+        <v>0</v>
       </c>
       <c r="E57">
         <v>16.2</v>
@@ -2029,16 +2530,25 @@
       <c r="K57">
         <v>91</v>
       </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M57">
+        <v>255</v>
+      </c>
+      <c r="N57">
+        <v>0</v>
+      </c>
+      <c r="O57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="B58">
-        <v>46.5</v>
+        <v>55</v>
       </c>
       <c r="C58">
-        <v>16.399999999999999</v>
+        <v>0</v>
       </c>
       <c r="E58">
         <v>16.399999999999999</v>
@@ -2058,16 +2568,25 @@
       <c r="K58">
         <v>93</v>
       </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M58">
+        <v>255</v>
+      </c>
+      <c r="N58">
+        <v>0</v>
+      </c>
+      <c r="O58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="B59">
-        <v>47.5</v>
+        <v>56</v>
       </c>
       <c r="C59">
-        <v>16.7</v>
+        <v>0</v>
       </c>
       <c r="E59">
         <v>16.7</v>
@@ -2087,16 +2606,25 @@
       <c r="K59">
         <v>95</v>
       </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M59">
+        <v>255</v>
+      </c>
+      <c r="N59">
+        <v>0</v>
+      </c>
+      <c r="O59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="B60">
-        <v>48.5</v>
+        <v>57</v>
       </c>
       <c r="C60">
-        <v>16.899999999999999</v>
+        <v>0</v>
       </c>
       <c r="E60">
         <v>16.899999999999999</v>
@@ -2116,16 +2644,25 @@
       <c r="K60">
         <v>96</v>
       </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M60">
+        <v>255</v>
+      </c>
+      <c r="N60">
+        <v>0</v>
+      </c>
+      <c r="O60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="B61">
-        <v>49.5</v>
+        <v>58</v>
       </c>
       <c r="C61">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="E61">
         <v>17</v>
@@ -2145,16 +2682,25 @@
       <c r="K61">
         <v>98</v>
       </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M61">
+        <v>255</v>
+      </c>
+      <c r="N61">
+        <v>0</v>
+      </c>
+      <c r="O61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="B62">
-        <v>50.5</v>
+        <v>59</v>
       </c>
       <c r="C62">
-        <v>17.399999999999999</v>
+        <v>0</v>
       </c>
       <c r="E62">
         <v>17.399999999999999</v>
@@ -2174,16 +2720,25 @@
       <c r="K62">
         <v>100</v>
       </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M62">
+        <v>255</v>
+      </c>
+      <c r="N62">
+        <v>0</v>
+      </c>
+      <c r="O62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="B63">
-        <v>51.5</v>
+        <v>60</v>
       </c>
       <c r="C63">
-        <v>17.600000000000001</v>
+        <v>0</v>
       </c>
       <c r="E63">
         <v>17.600000000000001</v>
@@ -2203,16 +2758,25 @@
       <c r="K63">
         <v>101</v>
       </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M63">
+        <v>255</v>
+      </c>
+      <c r="N63">
+        <v>0</v>
+      </c>
+      <c r="O63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="B64">
-        <v>52.5</v>
+        <v>61</v>
       </c>
       <c r="C64">
-        <v>17.8</v>
+        <v>0</v>
       </c>
       <c r="E64">
         <v>17.8</v>
@@ -2232,16 +2796,25 @@
       <c r="K64">
         <v>103</v>
       </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M64">
+        <v>255</v>
+      </c>
+      <c r="N64">
+        <v>0</v>
+      </c>
+      <c r="O64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="B65">
-        <v>53.5</v>
+        <v>62</v>
       </c>
       <c r="C65">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="E65">
         <v>18</v>
@@ -2261,16 +2834,25 @@
       <c r="K65">
         <v>105</v>
       </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M65">
+        <v>255</v>
+      </c>
+      <c r="N65">
+        <v>0</v>
+      </c>
+      <c r="O65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="B66">
-        <v>54.5</v>
+        <v>63</v>
       </c>
       <c r="C66">
-        <v>18.3</v>
+        <v>0</v>
       </c>
       <c r="E66">
         <v>18.3</v>
@@ -2290,16 +2872,25 @@
       <c r="K66">
         <v>107</v>
       </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M66">
+        <v>255</v>
+      </c>
+      <c r="N66">
+        <v>0</v>
+      </c>
+      <c r="O66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="B67">
-        <v>55.5</v>
+        <v>64</v>
       </c>
       <c r="C67">
-        <v>18.5</v>
+        <v>0</v>
       </c>
       <c r="E67">
         <v>18.5</v>
@@ -2319,16 +2910,25 @@
       <c r="K67">
         <v>108</v>
       </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M67">
+        <v>255</v>
+      </c>
+      <c r="N67">
+        <v>0</v>
+      </c>
+      <c r="O67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="B68">
-        <v>56.5</v>
+        <v>65</v>
       </c>
       <c r="C68">
-        <v>18.7</v>
+        <v>0</v>
       </c>
       <c r="E68">
         <v>18.7</v>
@@ -2348,16 +2948,25 @@
       <c r="K68">
         <v>110</v>
       </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M68">
+        <v>255</v>
+      </c>
+      <c r="N68">
+        <v>0</v>
+      </c>
+      <c r="O68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="B69">
-        <v>57.5</v>
+        <v>66</v>
       </c>
       <c r="C69">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="E69">
         <v>19</v>
@@ -2377,16 +2986,25 @@
       <c r="K69">
         <v>112</v>
       </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M69">
+        <v>255</v>
+      </c>
+      <c r="N69">
+        <v>0</v>
+      </c>
+      <c r="O69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="B70">
-        <v>58.5</v>
+        <v>67</v>
       </c>
       <c r="C70">
-        <v>192</v>
+        <v>0</v>
       </c>
       <c r="E70">
         <v>192</v>
@@ -2406,16 +3024,25 @@
       <c r="K70">
         <v>113</v>
       </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M70">
+        <v>255</v>
+      </c>
+      <c r="N70">
+        <v>0</v>
+      </c>
+      <c r="O70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="B71">
-        <v>59.5</v>
+        <v>68</v>
       </c>
       <c r="C71">
-        <v>19.399999999999999</v>
+        <v>0</v>
       </c>
       <c r="E71">
         <v>19.399999999999999</v>
@@ -2435,16 +3062,25 @@
       <c r="K71">
         <v>115</v>
       </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M71">
+        <v>255</v>
+      </c>
+      <c r="N71">
+        <v>0</v>
+      </c>
+      <c r="O71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="B72">
-        <v>60.5</v>
+        <v>69</v>
       </c>
       <c r="C72">
-        <v>19.600000000000001</v>
+        <v>0</v>
       </c>
       <c r="E72">
         <v>19.600000000000001</v>
@@ -2464,16 +3100,25 @@
       <c r="K72">
         <v>117</v>
       </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M72">
+        <v>255</v>
+      </c>
+      <c r="N72">
+        <v>0</v>
+      </c>
+      <c r="O72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="B73">
-        <v>61.5</v>
+        <v>70</v>
       </c>
       <c r="C73">
-        <v>19.8</v>
+        <v>0</v>
       </c>
       <c r="E73">
         <v>19.8</v>
@@ -2493,16 +3138,25 @@
       <c r="K73">
         <v>118</v>
       </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M73">
+        <v>255</v>
+      </c>
+      <c r="N73">
+        <v>0</v>
+      </c>
+      <c r="O73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="B74">
-        <v>62.5</v>
+        <v>71</v>
       </c>
       <c r="C74">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E74">
         <v>20</v>
@@ -2522,16 +3176,25 @@
       <c r="K74">
         <v>120</v>
       </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M74">
+        <v>255</v>
+      </c>
+      <c r="N74">
+        <v>0</v>
+      </c>
+      <c r="O74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="B75">
-        <v>63.5</v>
+        <v>72</v>
       </c>
       <c r="C75">
-        <v>20.2</v>
+        <v>0</v>
       </c>
       <c r="E75">
         <v>20.2</v>
@@ -2551,16 +3214,25 @@
       <c r="K75">
         <v>122</v>
       </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M75">
+        <v>255</v>
+      </c>
+      <c r="N75">
+        <v>0</v>
+      </c>
+      <c r="O75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="B76">
-        <v>64.5</v>
+        <v>73</v>
       </c>
       <c r="C76">
-        <v>20.399999999999999</v>
+        <v>0</v>
       </c>
       <c r="E76">
         <v>20.399999999999999</v>
@@ -2580,22 +3252,31 @@
       <c r="K76">
         <v>123</v>
       </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M76">
+        <v>255</v>
+      </c>
+      <c r="N76">
+        <v>0</v>
+      </c>
+      <c r="O76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="B77">
-        <v>65.5</v>
+        <v>74</v>
       </c>
       <c r="C77">
-        <v>20.7</v>
+        <v>0</v>
       </c>
       <c r="E77">
         <v>20.7</v>
       </c>
       <c r="F77">
-        <v>125</v>
+        <v>25</v>
       </c>
       <c r="G77">
         <v>65.5</v>
@@ -2607,18 +3288,27 @@
         <v>65.5</v>
       </c>
       <c r="K77">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="M77">
+        <v>255</v>
+      </c>
+      <c r="N77">
+        <v>0</v>
+      </c>
+      <c r="O77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="B78">
-        <v>66.5</v>
+        <v>75</v>
       </c>
       <c r="C78">
-        <v>20.9</v>
+        <v>0</v>
       </c>
       <c r="E78">
         <v>20.9</v>
@@ -2638,16 +3328,25 @@
       <c r="K78">
         <v>127</v>
       </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M78">
+        <v>255</v>
+      </c>
+      <c r="N78">
+        <v>0</v>
+      </c>
+      <c r="O78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="B79">
-        <v>67.5</v>
+        <v>76</v>
       </c>
       <c r="C79">
-        <v>21.1</v>
+        <v>0</v>
       </c>
       <c r="E79">
         <v>21.1</v>
@@ -2667,16 +3366,25 @@
       <c r="K79">
         <v>128</v>
       </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M79">
+        <v>255</v>
+      </c>
+      <c r="N79">
+        <v>0</v>
+      </c>
+      <c r="O79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="B80">
-        <v>68.5</v>
+        <v>77</v>
       </c>
       <c r="C80">
-        <v>21.3</v>
+        <v>0</v>
       </c>
       <c r="E80">
         <v>21.3</v>
@@ -2696,16 +3404,25 @@
       <c r="K80">
         <v>130</v>
       </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M80">
+        <v>255</v>
+      </c>
+      <c r="N80">
+        <v>0</v>
+      </c>
+      <c r="O80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="B81">
-        <v>69.5</v>
+        <v>78</v>
       </c>
       <c r="C81">
-        <v>21.5</v>
+        <v>0</v>
       </c>
       <c r="E81">
         <v>21.5</v>
@@ -2725,16 +3442,25 @@
       <c r="K81">
         <v>132</v>
       </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M81">
+        <v>255</v>
+      </c>
+      <c r="N81">
+        <v>0</v>
+      </c>
+      <c r="O81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="B82">
-        <v>70.5</v>
+        <v>79</v>
       </c>
       <c r="C82">
-        <v>21.7</v>
+        <v>0</v>
       </c>
       <c r="E82">
         <v>21.7</v>
@@ -2754,16 +3480,25 @@
       <c r="K82">
         <v>133</v>
       </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M82">
+        <v>255</v>
+      </c>
+      <c r="N82">
+        <v>0</v>
+      </c>
+      <c r="O82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="B83">
-        <v>71.5</v>
+        <v>80</v>
       </c>
       <c r="C83">
-        <v>21.9</v>
+        <v>0</v>
       </c>
       <c r="E83">
         <v>21.9</v>
@@ -2783,16 +3518,25 @@
       <c r="K83">
         <v>135</v>
       </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M83">
+        <v>255</v>
+      </c>
+      <c r="N83">
+        <v>0</v>
+      </c>
+      <c r="O83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="B84">
-        <v>72.5</v>
+        <v>81</v>
       </c>
       <c r="C84">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="E84">
         <v>22</v>
@@ -2812,16 +3556,25 @@
       <c r="K84">
         <v>137</v>
       </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M84">
+        <v>255</v>
+      </c>
+      <c r="N84">
+        <v>0</v>
+      </c>
+      <c r="O84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="B85">
-        <v>73.5</v>
+        <v>82</v>
       </c>
       <c r="C85">
-        <v>22.2</v>
+        <v>0</v>
       </c>
       <c r="E85">
         <v>22.2</v>
@@ -2841,16 +3594,25 @@
       <c r="K85">
         <v>138</v>
       </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M85">
+        <v>255</v>
+      </c>
+      <c r="N85">
+        <v>0</v>
+      </c>
+      <c r="O85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="B86">
-        <v>74.5</v>
+        <v>83</v>
       </c>
       <c r="C86">
-        <v>22.4</v>
+        <v>0</v>
       </c>
       <c r="E86">
         <v>22.4</v>
@@ -2870,16 +3632,25 @@
       <c r="K86">
         <v>140</v>
       </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M86">
+        <v>255</v>
+      </c>
+      <c r="N86">
+        <v>0</v>
+      </c>
+      <c r="O86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="B87">
-        <v>75.5</v>
+        <v>84</v>
       </c>
       <c r="C87">
-        <v>22.6</v>
+        <v>0</v>
       </c>
       <c r="E87">
         <v>22.6</v>
@@ -2899,16 +3670,25 @@
       <c r="K87">
         <v>141</v>
       </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M87">
+        <v>255</v>
+      </c>
+      <c r="N87">
+        <v>0</v>
+      </c>
+      <c r="O87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="B88">
-        <v>76.5</v>
+        <v>85</v>
       </c>
       <c r="C88">
-        <v>22.8</v>
+        <v>0</v>
       </c>
       <c r="E88">
         <v>22.8</v>
@@ -2928,16 +3708,25 @@
       <c r="K88">
         <v>143</v>
       </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M88">
+        <v>255</v>
+      </c>
+      <c r="N88">
+        <v>0</v>
+      </c>
+      <c r="O88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="B89">
-        <v>77.5</v>
+        <v>86</v>
       </c>
       <c r="C89">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="E89">
         <v>23</v>
@@ -2957,16 +3746,25 @@
       <c r="K89">
         <v>145</v>
       </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M89">
+        <v>255</v>
+      </c>
+      <c r="N89">
+        <v>0</v>
+      </c>
+      <c r="O89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="B90">
-        <v>78.5</v>
+        <v>87</v>
       </c>
       <c r="C90">
-        <v>23.3</v>
+        <v>0</v>
       </c>
       <c r="E90">
         <v>23.3</v>
@@ -2986,16 +3784,25 @@
       <c r="K90">
         <v>146</v>
       </c>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M90">
+        <v>255</v>
+      </c>
+      <c r="N90">
+        <v>0</v>
+      </c>
+      <c r="O90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="B91">
-        <v>79.5</v>
+        <v>88</v>
       </c>
       <c r="C91">
-        <v>23.5</v>
+        <v>0</v>
       </c>
       <c r="E91">
         <v>23.5</v>
@@ -3015,16 +3822,25 @@
       <c r="K91">
         <v>148</v>
       </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M91">
+        <v>255</v>
+      </c>
+      <c r="N91">
+        <v>0</v>
+      </c>
+      <c r="O91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="B92">
-        <v>80.5</v>
+        <v>89</v>
       </c>
       <c r="C92">
-        <v>23.7</v>
+        <v>0</v>
       </c>
       <c r="E92">
         <v>23.7</v>
@@ -3044,16 +3860,25 @@
       <c r="K92">
         <v>150</v>
       </c>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M92">
+        <v>255</v>
+      </c>
+      <c r="N92">
+        <v>0</v>
+      </c>
+      <c r="O92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="B93">
-        <v>81.5</v>
+        <v>90</v>
       </c>
       <c r="C93">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="E93">
         <v>24</v>
@@ -3073,16 +3898,25 @@
       <c r="K93">
         <v>151</v>
       </c>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M93">
+        <v>255</v>
+      </c>
+      <c r="N93">
+        <v>0</v>
+      </c>
+      <c r="O93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="B94">
-        <v>82.5</v>
+        <v>91</v>
       </c>
       <c r="C94">
-        <v>24.2</v>
+        <v>0</v>
       </c>
       <c r="E94">
         <v>24.2</v>
@@ -3102,16 +3936,25 @@
       <c r="K94">
         <v>153</v>
       </c>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M94">
+        <v>255</v>
+      </c>
+      <c r="N94">
+        <v>0</v>
+      </c>
+      <c r="O94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="B95">
-        <v>83.5</v>
+        <v>92</v>
       </c>
       <c r="C95">
-        <v>24.5</v>
+        <v>0</v>
       </c>
       <c r="E95">
         <v>24.5</v>
@@ -3131,16 +3974,25 @@
       <c r="K95">
         <v>155</v>
       </c>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M95">
+        <v>255</v>
+      </c>
+      <c r="N95">
+        <v>0</v>
+      </c>
+      <c r="O95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="B96">
-        <v>84.5</v>
+        <v>93</v>
       </c>
       <c r="C96">
-        <v>24.7</v>
+        <v>0</v>
       </c>
       <c r="E96">
         <v>24.7</v>
@@ -3160,16 +4012,25 @@
       <c r="K96">
         <v>157</v>
       </c>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M96">
+        <v>255</v>
+      </c>
+      <c r="N96">
+        <v>0</v>
+      </c>
+      <c r="O96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="B97">
-        <v>85.5</v>
+        <v>94</v>
       </c>
       <c r="C97">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="E97">
         <v>25</v>
@@ -3189,16 +4050,25 @@
       <c r="K97">
         <v>158</v>
       </c>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M97">
+        <v>255</v>
+      </c>
+      <c r="N97">
+        <v>0</v>
+      </c>
+      <c r="O97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="B98">
-        <v>86.5</v>
+        <v>95</v>
       </c>
       <c r="C98">
-        <v>25.2</v>
+        <v>0</v>
       </c>
       <c r="E98">
         <v>25.2</v>
@@ -3218,16 +4088,25 @@
       <c r="K98">
         <v>160</v>
       </c>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M98">
+        <v>255</v>
+      </c>
+      <c r="N98">
+        <v>0</v>
+      </c>
+      <c r="O98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="B99">
-        <v>87.5</v>
+        <v>96</v>
       </c>
       <c r="C99">
-        <v>25.5</v>
+        <v>0</v>
       </c>
       <c r="E99">
         <v>25.5</v>
@@ -3247,16 +4126,25 @@
       <c r="K99">
         <v>162</v>
       </c>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M99">
+        <v>255</v>
+      </c>
+      <c r="N99">
+        <v>0</v>
+      </c>
+      <c r="O99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="B100">
-        <v>88.5</v>
+        <v>97</v>
       </c>
       <c r="C100">
-        <v>25.8</v>
+        <v>0</v>
       </c>
       <c r="E100">
         <v>25.8</v>
@@ -3276,16 +4164,25 @@
       <c r="K100">
         <v>164</v>
       </c>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M100">
+        <v>255</v>
+      </c>
+      <c r="N100">
+        <v>0</v>
+      </c>
+      <c r="O100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="B101">
-        <v>89.5</v>
+        <v>98</v>
       </c>
       <c r="C101">
-        <v>26.1</v>
+        <v>0</v>
       </c>
       <c r="E101">
         <v>26.1</v>
@@ -3305,16 +4202,25 @@
       <c r="K101">
         <v>165</v>
       </c>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M101">
+        <v>255</v>
+      </c>
+      <c r="N101">
+        <v>0</v>
+      </c>
+      <c r="O101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="B102">
-        <v>90.5</v>
+        <v>99</v>
       </c>
       <c r="C102">
-        <v>26.3</v>
+        <v>0</v>
       </c>
       <c r="E102">
         <v>26.3</v>
@@ -3334,16 +4240,25 @@
       <c r="K102">
         <v>167</v>
       </c>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M102">
+        <v>255</v>
+      </c>
+      <c r="N102">
+        <v>0</v>
+      </c>
+      <c r="O102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="B103">
-        <v>91.5</v>
+        <v>100</v>
       </c>
       <c r="C103">
-        <v>26.6</v>
+        <v>0</v>
       </c>
       <c r="E103">
         <v>26.6</v>
@@ -3363,16 +4278,25 @@
       <c r="K103">
         <v>169</v>
       </c>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M103">
+        <v>255</v>
+      </c>
+      <c r="N103">
+        <v>0</v>
+      </c>
+      <c r="O103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="B104">
-        <v>92.5</v>
+        <v>101</v>
       </c>
       <c r="C104">
-        <v>26.9</v>
+        <v>0</v>
       </c>
       <c r="E104">
         <v>26.9</v>
@@ -3392,16 +4316,25 @@
       <c r="K104">
         <v>171</v>
       </c>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M104">
+        <v>255</v>
+      </c>
+      <c r="N104">
+        <v>0</v>
+      </c>
+      <c r="O104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="B105">
-        <v>93.5</v>
+        <v>102</v>
       </c>
       <c r="C105">
-        <v>27.2</v>
+        <v>0</v>
       </c>
       <c r="E105">
         <v>27.2</v>
@@ -3421,16 +4354,25 @@
       <c r="K105">
         <v>173</v>
       </c>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M105">
+        <v>255</v>
+      </c>
+      <c r="N105">
+        <v>0</v>
+      </c>
+      <c r="O105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="B106">
-        <v>94.5</v>
+        <v>103</v>
       </c>
       <c r="C106">
-        <v>27.5</v>
+        <v>0</v>
       </c>
       <c r="E106">
         <v>27.5</v>
@@ -3450,16 +4392,25 @@
       <c r="K106">
         <v>175</v>
       </c>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M106">
+        <v>255</v>
+      </c>
+      <c r="N106">
+        <v>0</v>
+      </c>
+      <c r="O106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="B107">
-        <v>95.5</v>
+        <v>104</v>
       </c>
       <c r="C107">
-        <v>27.9</v>
+        <v>0</v>
       </c>
       <c r="E107">
         <v>27.9</v>
@@ -3479,16 +4430,25 @@
       <c r="K107">
         <v>177</v>
       </c>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M107">
+        <v>255</v>
+      </c>
+      <c r="N107">
+        <v>0</v>
+      </c>
+      <c r="O107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="B108">
-        <v>96.5</v>
+        <v>105</v>
       </c>
       <c r="C108">
-        <v>28.2</v>
+        <v>0</v>
       </c>
       <c r="E108">
         <v>28.2</v>
@@ -3508,16 +4468,25 @@
       <c r="K108">
         <v>178</v>
       </c>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M108">
+        <v>255</v>
+      </c>
+      <c r="N108">
+        <v>0</v>
+      </c>
+      <c r="O108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="B109">
-        <v>97.5</v>
+        <v>106</v>
       </c>
       <c r="C109">
-        <v>28.5</v>
+        <v>0</v>
       </c>
       <c r="E109">
         <v>28.5</v>
@@ -3537,16 +4506,25 @@
       <c r="K109">
         <v>180</v>
       </c>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M109">
+        <v>255</v>
+      </c>
+      <c r="N109">
+        <v>0</v>
+      </c>
+      <c r="O109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>182</v>
+        <v>196</v>
       </c>
       <c r="B110">
-        <v>98.5</v>
+        <v>107</v>
       </c>
       <c r="C110">
-        <v>28.9</v>
+        <v>0</v>
       </c>
       <c r="E110">
         <v>28.9</v>
@@ -3566,16 +4544,25 @@
       <c r="K110">
         <v>182</v>
       </c>
-    </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M110">
+        <v>255</v>
+      </c>
+      <c r="N110">
+        <v>0</v>
+      </c>
+      <c r="O110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="B111">
-        <v>99.5</v>
+        <v>108</v>
       </c>
       <c r="C111">
-        <v>29.2</v>
+        <v>0</v>
       </c>
       <c r="E111">
         <v>29.2</v>
@@ -3595,16 +4582,25 @@
       <c r="K111">
         <v>184</v>
       </c>
-    </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M111">
+        <v>255</v>
+      </c>
+      <c r="N111">
+        <v>0</v>
+      </c>
+      <c r="O111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>186</v>
+        <v>199</v>
       </c>
       <c r="B112">
-        <v>100.5</v>
+        <v>109</v>
       </c>
       <c r="C112">
-        <v>29.6</v>
+        <v>0</v>
       </c>
       <c r="E112">
         <v>29.6</v>
@@ -3624,16 +4620,25 @@
       <c r="K112">
         <v>186</v>
       </c>
-    </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M112">
+        <v>255</v>
+      </c>
+      <c r="N112">
+        <v>0</v>
+      </c>
+      <c r="O112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="B113">
-        <v>101.5</v>
+        <v>110</v>
       </c>
       <c r="C113">
-        <v>29.9</v>
+        <v>0</v>
       </c>
       <c r="E113">
         <v>29.9</v>
@@ -3653,16 +4658,25 @@
       <c r="K113">
         <v>188</v>
       </c>
-    </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M113">
+        <v>255</v>
+      </c>
+      <c r="N113">
+        <v>0</v>
+      </c>
+      <c r="O113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="B114">
-        <v>102.5</v>
+        <v>111</v>
       </c>
       <c r="C114">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="E114">
         <v>30</v>
@@ -3682,16 +4696,25 @@
       <c r="K114">
         <v>190</v>
       </c>
-    </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M114">
+        <v>255</v>
+      </c>
+      <c r="N114">
+        <v>0</v>
+      </c>
+      <c r="O114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="B115">
-        <v>103.5</v>
+        <v>112</v>
       </c>
       <c r="C115">
-        <v>30.7</v>
+        <v>0</v>
       </c>
       <c r="E115">
         <v>30.7</v>
@@ -3711,16 +4734,25 @@
       <c r="K115">
         <v>191</v>
       </c>
-    </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M115">
+        <v>255</v>
+      </c>
+      <c r="N115">
+        <v>0</v>
+      </c>
+      <c r="O115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="B116">
-        <v>104.5</v>
+        <v>113</v>
       </c>
       <c r="C116">
-        <v>31.1</v>
+        <v>0</v>
       </c>
       <c r="E116">
         <v>31.1</v>
@@ -3740,16 +4772,25 @@
       <c r="K116">
         <v>193</v>
       </c>
-    </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M116">
+        <v>255</v>
+      </c>
+      <c r="N116">
+        <v>0</v>
+      </c>
+      <c r="O116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="B117">
-        <v>105.5</v>
+        <v>114</v>
       </c>
       <c r="C117">
-        <v>31.5</v>
+        <v>0</v>
       </c>
       <c r="E117">
         <v>31.5</v>
@@ -3769,16 +4810,25 @@
       <c r="K117">
         <v>195</v>
       </c>
-    </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M117">
+        <v>255</v>
+      </c>
+      <c r="N117">
+        <v>0</v>
+      </c>
+      <c r="O117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="B118">
-        <v>106.5</v>
+        <v>115</v>
       </c>
       <c r="C118">
-        <v>31.9</v>
+        <v>0</v>
       </c>
       <c r="E118">
         <v>31.9</v>
@@ -3798,16 +4848,25 @@
       <c r="K118">
         <v>197</v>
       </c>
-    </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M118">
+        <v>255</v>
+      </c>
+      <c r="N118">
+        <v>0</v>
+      </c>
+      <c r="O118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="B119">
-        <v>107.5</v>
+        <v>116</v>
       </c>
       <c r="C119">
-        <v>32.299999999999997</v>
+        <v>0</v>
       </c>
       <c r="E119">
         <v>32.299999999999997</v>
@@ -3827,16 +4886,25 @@
       <c r="K119">
         <v>198</v>
       </c>
-    </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M119">
+        <v>255</v>
+      </c>
+      <c r="N119">
+        <v>0</v>
+      </c>
+      <c r="O119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="B120">
-        <v>108.5</v>
+        <v>117</v>
       </c>
       <c r="C120">
-        <v>32.700000000000003</v>
+        <v>0</v>
       </c>
       <c r="E120">
         <v>32.700000000000003</v>
@@ -3856,16 +4924,25 @@
       <c r="K120">
         <v>200</v>
       </c>
-    </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M120">
+        <v>255</v>
+      </c>
+      <c r="N120">
+        <v>0</v>
+      </c>
+      <c r="O120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="B121">
-        <v>109.5</v>
+        <v>118</v>
       </c>
       <c r="C121">
-        <v>33.200000000000003</v>
+        <v>0</v>
       </c>
       <c r="E121">
         <v>33.200000000000003</v>
@@ -3885,16 +4962,25 @@
       <c r="K121">
         <v>202</v>
       </c>
-    </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M121">
+        <v>255</v>
+      </c>
+      <c r="N121">
+        <v>0</v>
+      </c>
+      <c r="O121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="B122">
-        <v>110.5</v>
+        <v>119</v>
       </c>
       <c r="C122">
-        <v>33.6</v>
+        <v>0</v>
       </c>
       <c r="E122">
         <v>33.6</v>
@@ -3914,16 +5000,25 @@
       <c r="K122">
         <v>203</v>
       </c>
-    </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M122">
+        <v>255</v>
+      </c>
+      <c r="N122">
+        <v>0</v>
+      </c>
+      <c r="O122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>205</v>
+        <v>219</v>
       </c>
       <c r="B123">
-        <v>111.5</v>
+        <v>120</v>
       </c>
       <c r="C123">
-        <v>34.1</v>
+        <v>0</v>
       </c>
       <c r="E123">
         <v>34.1</v>
@@ -3943,16 +5038,25 @@
       <c r="K123">
         <v>205</v>
       </c>
-    </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M123">
+        <v>255</v>
+      </c>
+      <c r="N123">
+        <v>0</v>
+      </c>
+      <c r="O123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>207</v>
+        <v>221</v>
       </c>
       <c r="B124">
-        <v>112.5</v>
+        <v>121</v>
       </c>
       <c r="C124">
-        <v>34.6</v>
+        <v>0</v>
       </c>
       <c r="E124">
         <v>34.6</v>
@@ -3972,16 +5076,25 @@
       <c r="K124">
         <v>207</v>
       </c>
-    </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M124">
+        <v>255</v>
+      </c>
+      <c r="N124">
+        <v>0</v>
+      </c>
+      <c r="O124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>209</v>
+        <v>222</v>
       </c>
       <c r="B125">
-        <v>113.5</v>
+        <v>122</v>
       </c>
       <c r="C125">
-        <v>35.1</v>
+        <v>0</v>
       </c>
       <c r="E125">
         <v>35.1</v>
@@ -4001,16 +5114,25 @@
       <c r="K125">
         <v>209</v>
       </c>
-    </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M125">
+        <v>255</v>
+      </c>
+      <c r="N125">
+        <v>0</v>
+      </c>
+      <c r="O125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="B126">
-        <v>114.5</v>
+        <v>123</v>
       </c>
       <c r="C126">
-        <v>35.6</v>
+        <v>0</v>
       </c>
       <c r="E126">
         <v>35.6</v>
@@ -4030,16 +5152,25 @@
       <c r="K126">
         <v>210</v>
       </c>
-    </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M126">
+        <v>255</v>
+      </c>
+      <c r="N126">
+        <v>0</v>
+      </c>
+      <c r="O126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>212</v>
+        <v>225</v>
       </c>
       <c r="B127">
-        <v>115.5</v>
+        <v>124</v>
       </c>
       <c r="C127">
-        <v>36.1</v>
+        <v>0</v>
       </c>
       <c r="E127">
         <v>36.1</v>
@@ -4059,16 +5190,25 @@
       <c r="K127">
         <v>212</v>
       </c>
-    </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M127">
+        <v>255</v>
+      </c>
+      <c r="N127">
+        <v>0</v>
+      </c>
+      <c r="O127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>213</v>
+        <v>227</v>
       </c>
       <c r="B128">
-        <v>116.5</v>
+        <v>125</v>
       </c>
       <c r="C128">
-        <v>36.6</v>
+        <v>0</v>
       </c>
       <c r="E128">
         <v>36.6</v>
@@ -4088,16 +5228,25 @@
       <c r="K128">
         <v>213</v>
       </c>
-    </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M128">
+        <v>255</v>
+      </c>
+      <c r="N128">
+        <v>0</v>
+      </c>
+      <c r="O128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>214</v>
+        <v>230</v>
       </c>
       <c r="B129">
-        <v>117.5</v>
+        <v>126</v>
       </c>
       <c r="C129">
-        <v>37.1</v>
+        <v>0</v>
       </c>
       <c r="E129">
         <v>37.1</v>
@@ -4117,16 +5266,25 @@
       <c r="K129">
         <v>214</v>
       </c>
-    </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M129">
+        <v>255</v>
+      </c>
+      <c r="N129">
+        <v>0</v>
+      </c>
+      <c r="O129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="B130">
-        <v>118.5</v>
+        <v>128</v>
       </c>
       <c r="C130">
-        <v>37.700000000000003</v>
+        <v>0</v>
       </c>
       <c r="E130">
         <v>37.700000000000003</v>
@@ -4146,16 +5304,25 @@
       <c r="K130">
         <v>215</v>
       </c>
-    </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M130">
+        <v>255</v>
+      </c>
+      <c r="N130">
+        <v>0</v>
+      </c>
+      <c r="O130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>216</v>
+        <v>234</v>
       </c>
       <c r="B131">
-        <v>119.5</v>
+        <v>129</v>
       </c>
       <c r="C131">
-        <v>38.200000000000003</v>
+        <v>0</v>
       </c>
       <c r="E131">
         <v>38.200000000000003</v>
@@ -4175,16 +5342,25 @@
       <c r="K131">
         <v>216</v>
       </c>
-    </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M131">
+        <v>255</v>
+      </c>
+      <c r="N131">
+        <v>0</v>
+      </c>
+      <c r="O131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="B132">
-        <v>120.5</v>
+        <v>130</v>
       </c>
       <c r="C132">
-        <v>38.799999999999997</v>
+        <v>0</v>
       </c>
       <c r="E132">
         <v>38.799999999999997</v>
@@ -4204,16 +5380,25 @@
       <c r="K132">
         <v>216</v>
       </c>
-    </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M132">
+        <v>255</v>
+      </c>
+      <c r="N132">
+        <v>0</v>
+      </c>
+      <c r="O132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>217</v>
+        <v>238</v>
       </c>
       <c r="B133">
-        <v>121.5</v>
+        <v>131</v>
       </c>
       <c r="C133">
-        <v>39.4</v>
+        <v>0</v>
       </c>
       <c r="E133">
         <v>39.4</v>
@@ -4233,16 +5418,25 @@
       <c r="K133">
         <v>217</v>
       </c>
-    </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M133">
+        <v>255</v>
+      </c>
+      <c r="N133">
+        <v>0</v>
+      </c>
+      <c r="O133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>218</v>
+        <v>240</v>
       </c>
       <c r="B134">
-        <v>122.5</v>
+        <v>132</v>
       </c>
       <c r="C134">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="E134">
         <v>40</v>
@@ -4262,16 +5456,25 @@
       <c r="K134">
         <v>218</v>
       </c>
-    </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M134">
+        <v>255</v>
+      </c>
+      <c r="N134">
+        <v>0</v>
+      </c>
+      <c r="O134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>218</v>
+        <v>242</v>
       </c>
       <c r="B135">
-        <v>123.5</v>
+        <v>133</v>
       </c>
       <c r="C135">
-        <v>40.700000000000003</v>
+        <v>0</v>
       </c>
       <c r="E135">
         <v>40.700000000000003</v>
@@ -4291,16 +5494,25 @@
       <c r="K135">
         <v>218</v>
       </c>
-    </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M135">
+        <v>255</v>
+      </c>
+      <c r="N135">
+        <v>0</v>
+      </c>
+      <c r="O135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>219</v>
+        <v>242</v>
       </c>
       <c r="B136">
-        <v>124.5</v>
+        <v>134</v>
       </c>
       <c r="C136">
-        <v>41.6</v>
+        <v>0</v>
       </c>
       <c r="E136">
         <v>41.6</v>
@@ -4320,16 +5532,25 @@
       <c r="K136">
         <v>219</v>
       </c>
-    </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M136">
+        <v>255</v>
+      </c>
+      <c r="N136">
+        <v>0</v>
+      </c>
+      <c r="O136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>219</v>
+        <v>244</v>
       </c>
       <c r="B137">
-        <v>125.5</v>
+        <v>135</v>
       </c>
       <c r="C137">
-        <v>42.7</v>
+        <v>0</v>
       </c>
       <c r="E137">
         <v>42.7</v>
@@ -4349,16 +5570,25 @@
       <c r="K137">
         <v>219</v>
       </c>
-    </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M137">
+        <v>255</v>
+      </c>
+      <c r="N137">
+        <v>0</v>
+      </c>
+      <c r="O137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>220</v>
+        <v>247</v>
       </c>
       <c r="B138">
-        <v>126.5</v>
+        <v>136</v>
       </c>
       <c r="C138">
-        <v>43.9</v>
+        <v>0</v>
       </c>
       <c r="E138">
         <v>43.9</v>
@@ -4378,16 +5608,25 @@
       <c r="K138">
         <v>220</v>
       </c>
-    </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M138">
+        <v>255</v>
+      </c>
+      <c r="N138">
+        <v>0</v>
+      </c>
+      <c r="O138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="B139">
-        <v>127.5</v>
+        <v>137</v>
       </c>
       <c r="C139">
-        <v>45.3</v>
+        <v>0</v>
       </c>
       <c r="E139">
         <v>45.3</v>
@@ -4407,16 +5646,25 @@
       <c r="K139">
         <v>220</v>
       </c>
-    </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M139">
+        <v>255</v>
+      </c>
+      <c r="N139">
+        <v>0</v>
+      </c>
+      <c r="O139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>221</v>
+        <v>251</v>
       </c>
       <c r="B140">
-        <v>128.5</v>
+        <v>138</v>
       </c>
       <c r="C140">
-        <v>46.8</v>
+        <v>0</v>
       </c>
       <c r="E140">
         <v>46.8</v>
@@ -4436,16 +5684,25 @@
       <c r="K140">
         <v>221</v>
       </c>
-    </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M140">
+        <v>255</v>
+      </c>
+      <c r="N140">
+        <v>0</v>
+      </c>
+      <c r="O140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>221</v>
+        <v>253</v>
       </c>
       <c r="B141">
-        <v>129.5</v>
+        <v>139</v>
       </c>
       <c r="C141">
-        <v>48.4</v>
+        <v>0</v>
       </c>
       <c r="E141">
         <v>48.4</v>
@@ -4465,16 +5722,25 @@
       <c r="K141">
         <v>221</v>
       </c>
-    </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M141">
+        <v>255</v>
+      </c>
+      <c r="N141">
+        <v>0</v>
+      </c>
+      <c r="O141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>222</v>
+        <v>255</v>
       </c>
       <c r="B142">
-        <v>130.5</v>
+        <v>140</v>
       </c>
       <c r="C142">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E142">
         <v>50</v>
@@ -4494,16 +5760,25 @@
       <c r="K142">
         <v>222</v>
       </c>
-    </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M142">
+        <v>255</v>
+      </c>
+      <c r="N142">
+        <v>0</v>
+      </c>
+      <c r="O142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>222</v>
+        <v>255</v>
       </c>
       <c r="B143">
-        <v>131.5</v>
+        <v>141</v>
       </c>
       <c r="C143">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="E143">
         <v>52</v>
@@ -4523,16 +5798,25 @@
       <c r="K143">
         <v>222</v>
       </c>
-    </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M143">
+        <v>255</v>
+      </c>
+      <c r="N143">
+        <v>0</v>
+      </c>
+      <c r="O143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>223</v>
+        <v>255</v>
       </c>
       <c r="B144">
-        <v>132.5</v>
+        <v>142</v>
       </c>
       <c r="C144">
-        <v>53.9</v>
+        <v>0</v>
       </c>
       <c r="E144">
         <v>53.9</v>
@@ -4552,16 +5836,25 @@
       <c r="K144">
         <v>223</v>
       </c>
-    </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M144">
+        <v>255</v>
+      </c>
+      <c r="N144">
+        <v>0</v>
+      </c>
+      <c r="O144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>223</v>
+        <v>255</v>
       </c>
       <c r="B145">
-        <v>133.5</v>
+        <v>143</v>
       </c>
       <c r="C145">
-        <v>55.8</v>
+        <v>3</v>
       </c>
       <c r="E145">
         <v>55.8</v>
@@ -4581,16 +5874,25 @@
       <c r="K145">
         <v>223</v>
       </c>
-    </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M145">
+        <v>255</v>
+      </c>
+      <c r="N145">
+        <v>0</v>
+      </c>
+      <c r="O145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>224</v>
+        <v>255</v>
       </c>
       <c r="B146">
-        <v>134.5</v>
+        <v>144</v>
       </c>
       <c r="C146">
-        <v>57.9</v>
+        <v>6</v>
       </c>
       <c r="E146">
         <v>57.9</v>
@@ -4610,16 +5912,25 @@
       <c r="K146">
         <v>224</v>
       </c>
-    </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M146">
+        <v>255</v>
+      </c>
+      <c r="N146">
+        <v>0</v>
+      </c>
+      <c r="O146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>224</v>
+        <v>255</v>
       </c>
       <c r="B147">
-        <v>135.5</v>
+        <v>145</v>
       </c>
       <c r="C147">
-        <v>59.9</v>
+        <v>9</v>
       </c>
       <c r="E147">
         <v>59.9</v>
@@ -4639,16 +5950,25 @@
       <c r="K147">
         <v>224</v>
       </c>
-    </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M147">
+        <v>255</v>
+      </c>
+      <c r="N147">
+        <v>0</v>
+      </c>
+      <c r="O147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>224</v>
+        <v>255</v>
       </c>
       <c r="B148">
-        <v>136.5</v>
+        <v>146</v>
       </c>
       <c r="C148">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="E148">
         <v>62</v>
@@ -4668,16 +5988,25 @@
       <c r="K148">
         <v>224</v>
       </c>
-    </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M148">
+        <v>255</v>
+      </c>
+      <c r="N148">
+        <v>0</v>
+      </c>
+      <c r="O148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>225</v>
+        <v>255</v>
       </c>
       <c r="B149">
-        <v>137.5</v>
+        <v>147</v>
       </c>
       <c r="C149">
-        <v>64.2</v>
+        <v>15</v>
       </c>
       <c r="E149">
         <v>64.2</v>
@@ -4697,16 +6026,25 @@
       <c r="K149">
         <v>225</v>
       </c>
-    </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M149">
+        <v>255</v>
+      </c>
+      <c r="N149">
+        <v>0</v>
+      </c>
+      <c r="O149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>225</v>
+        <v>255</v>
       </c>
       <c r="B150">
-        <v>138.5</v>
+        <v>148</v>
       </c>
       <c r="C150">
-        <v>66.3</v>
+        <v>17</v>
       </c>
       <c r="E150">
         <v>66.3</v>
@@ -4726,16 +6064,25 @@
       <c r="K150">
         <v>225</v>
       </c>
-    </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M150">
+        <v>255</v>
+      </c>
+      <c r="N150">
+        <v>0</v>
+      </c>
+      <c r="O150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>226</v>
+        <v>255</v>
       </c>
       <c r="B151">
-        <v>139.5</v>
+        <v>149</v>
       </c>
       <c r="C151">
-        <v>68.400000000000006</v>
+        <v>19</v>
       </c>
       <c r="E151">
         <v>68.400000000000006</v>
@@ -4755,16 +6102,25 @@
       <c r="K151">
         <v>226</v>
       </c>
-    </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M151">
+        <v>255</v>
+      </c>
+      <c r="N151">
+        <v>0</v>
+      </c>
+      <c r="O151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>226</v>
+        <v>255</v>
       </c>
       <c r="B152">
-        <v>140.5</v>
+        <v>150</v>
       </c>
       <c r="C152">
-        <v>70.5</v>
+        <v>21</v>
       </c>
       <c r="E152">
         <v>70.5</v>
@@ -4784,16 +6140,25 @@
       <c r="K152">
         <v>226</v>
       </c>
-    </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M152">
+        <v>255</v>
+      </c>
+      <c r="N152">
+        <v>0</v>
+      </c>
+      <c r="O152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>226</v>
+        <v>255</v>
       </c>
       <c r="B153">
-        <v>141.5</v>
+        <v>151</v>
       </c>
       <c r="C153">
-        <v>70.455558727308102</v>
+        <v>23</v>
       </c>
       <c r="E153">
         <v>70.455558727308102</v>
@@ -4813,16 +6178,25 @@
       <c r="K153">
         <v>226</v>
       </c>
-    </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M153">
+        <v>255</v>
+      </c>
+      <c r="N153">
+        <v>0</v>
+      </c>
+      <c r="O153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>227</v>
+        <v>255</v>
       </c>
       <c r="B154">
-        <v>142.5</v>
+        <v>152</v>
       </c>
       <c r="C154">
-        <v>72.494358309416995</v>
+        <v>25</v>
       </c>
       <c r="E154">
         <v>72.494358309416995</v>
@@ -4842,16 +6216,25 @@
       <c r="K154">
         <v>227</v>
       </c>
-    </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M154">
+        <v>255</v>
+      </c>
+      <c r="N154">
+        <v>0</v>
+      </c>
+      <c r="O154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>227</v>
+        <v>255</v>
       </c>
       <c r="B155">
-        <v>143.5</v>
+        <v>153</v>
       </c>
       <c r="C155">
-        <v>74.481436592544497</v>
+        <v>28</v>
       </c>
       <c r="E155">
         <v>74.481436592544497</v>
@@ -4871,16 +6254,25 @@
       <c r="K155">
         <v>227</v>
       </c>
-    </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M155">
+        <v>255</v>
+      </c>
+      <c r="N155">
+        <v>0</v>
+      </c>
+      <c r="O155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A156">
-        <v>227</v>
+        <v>255</v>
       </c>
       <c r="B156">
-        <v>144.5</v>
+        <v>154</v>
       </c>
       <c r="C156">
-        <v>76.403559211886702</v>
+        <v>32</v>
       </c>
       <c r="E156">
         <v>76.403559211886702</v>
@@ -4900,16 +6292,25 @@
       <c r="K156">
         <v>227</v>
       </c>
-    </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M156">
+        <v>255</v>
+      </c>
+      <c r="N156">
+        <v>0</v>
+      </c>
+      <c r="O156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A157">
-        <v>228</v>
+        <v>255</v>
       </c>
       <c r="B157">
-        <v>145.5</v>
+        <v>155</v>
       </c>
       <c r="C157">
-        <v>78.2474918026399</v>
+        <v>34</v>
       </c>
       <c r="E157">
         <v>78.2474918026399</v>
@@ -4929,16 +6330,25 @@
       <c r="K157">
         <v>228</v>
       </c>
-    </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M157">
+        <v>255</v>
+      </c>
+      <c r="N157">
+        <v>0</v>
+      </c>
+      <c r="O157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A158">
-        <v>228</v>
+        <v>255</v>
       </c>
       <c r="B158">
-        <v>146.5</v>
+        <v>156</v>
       </c>
       <c r="C158">
-        <v>80</v>
+        <v>36</v>
       </c>
       <c r="E158">
         <v>80</v>
@@ -4958,16 +6368,25 @@
       <c r="K158">
         <v>228</v>
       </c>
-    </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M158">
+        <v>255</v>
+      </c>
+      <c r="N158">
+        <v>0</v>
+      </c>
+      <c r="O158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A159">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="B159">
-        <v>147.5</v>
+        <v>157</v>
       </c>
       <c r="C159">
-        <v>81.694928014689495</v>
+        <v>37</v>
       </c>
       <c r="E159">
         <v>81.694928014689495</v>
@@ -4987,16 +6406,25 @@
       <c r="K159">
         <v>229</v>
       </c>
-    </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M159">
+        <v>255</v>
+      </c>
+      <c r="N159">
+        <v>0</v>
+      </c>
+      <c r="O159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A160">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="B160">
-        <v>148.5</v>
+        <v>158</v>
       </c>
       <c r="C160">
-        <v>83.375980930096304</v>
+        <v>40</v>
       </c>
       <c r="E160">
         <v>83.375980930096304</v>
@@ -5016,16 +6444,25 @@
       <c r="K160">
         <v>229</v>
       </c>
-    </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M160">
+        <v>255</v>
+      </c>
+      <c r="N160">
+        <v>0</v>
+      </c>
+      <c r="O160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A161">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="B161">
-        <v>149.5</v>
+        <v>159</v>
       </c>
       <c r="C161">
-        <v>85.044715690414804</v>
+        <v>43</v>
       </c>
       <c r="E161">
         <v>85.044715690414804</v>
@@ -5045,16 +6482,25 @@
       <c r="K161">
         <v>229</v>
       </c>
-    </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M161">
+        <v>255</v>
+      </c>
+      <c r="N161">
+        <v>0</v>
+      </c>
+      <c r="O161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A162">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="B162">
-        <v>150.5</v>
+        <v>160</v>
       </c>
       <c r="C162">
-        <v>86.702689239839401</v>
+        <v>45</v>
       </c>
       <c r="E162">
         <v>86.702689239839401</v>
@@ -5074,16 +6520,25 @@
       <c r="K162">
         <v>229</v>
       </c>
-    </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M162">
+        <v>255</v>
+      </c>
+      <c r="N162">
+        <v>0</v>
+      </c>
+      <c r="O162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A163">
-        <v>230</v>
+        <v>255</v>
       </c>
       <c r="B163">
-        <v>151.5</v>
+        <v>161</v>
       </c>
       <c r="C163">
-        <v>88.351458522564599</v>
+        <v>46</v>
       </c>
       <c r="E163">
         <v>88.351458522564599</v>
@@ -5103,16 +6558,25 @@
       <c r="K163">
         <v>230</v>
       </c>
-    </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M163">
+        <v>255</v>
+      </c>
+      <c r="N163">
+        <v>0</v>
+      </c>
+      <c r="O163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A164">
-        <v>230</v>
+        <v>255</v>
       </c>
       <c r="B164">
-        <v>152.5</v>
+        <v>162</v>
       </c>
       <c r="C164">
-        <v>89.992580482784803</v>
+        <v>47</v>
       </c>
       <c r="E164">
         <v>89.992580482784803</v>
@@ -5132,16 +6596,25 @@
       <c r="K164">
         <v>230</v>
       </c>
-    </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M164">
+        <v>255</v>
+      </c>
+      <c r="N164">
+        <v>0</v>
+      </c>
+      <c r="O164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A165">
-        <v>230</v>
+        <v>255</v>
       </c>
       <c r="B165">
-        <v>153.5</v>
+        <v>163</v>
       </c>
       <c r="C165">
-        <v>91.627612064694205</v>
+        <v>49</v>
       </c>
       <c r="E165">
         <v>91.627612064694205</v>
@@ -5161,16 +6634,25 @@
       <c r="K165">
         <v>230</v>
       </c>
-    </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M165">
+        <v>255</v>
+      </c>
+      <c r="N165">
+        <v>0</v>
+      </c>
+      <c r="O165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A166">
-        <v>230</v>
+        <v>255</v>
       </c>
       <c r="B166">
-        <v>154.5</v>
+        <v>164</v>
       </c>
       <c r="C166">
-        <v>93.258110212487395</v>
+        <v>51</v>
       </c>
       <c r="E166">
         <v>93.258110212487395</v>
@@ -5190,16 +6672,25 @@
       <c r="K166">
         <v>230</v>
       </c>
-    </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M166">
+        <v>255</v>
+      </c>
+      <c r="N166">
+        <v>0</v>
+      </c>
+      <c r="O166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A167">
-        <v>231</v>
+        <v>255</v>
       </c>
       <c r="B167">
-        <v>155.5</v>
+        <v>165</v>
       </c>
       <c r="C167">
-        <v>94.885631870358694</v>
+        <v>53</v>
       </c>
       <c r="E167">
         <v>94.885631870358694</v>
@@ -5219,16 +6710,25 @@
       <c r="K167">
         <v>231</v>
       </c>
-    </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M167">
+        <v>255</v>
+      </c>
+      <c r="N167">
+        <v>0</v>
+      </c>
+      <c r="O167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A168">
-        <v>231</v>
+        <v>255</v>
       </c>
       <c r="B168">
-        <v>156.5</v>
+        <v>166</v>
       </c>
       <c r="C168">
-        <v>96.511733982502605</v>
+        <v>55</v>
       </c>
       <c r="E168">
         <v>96.511733982502605</v>
@@ -5248,16 +6748,25 @@
       <c r="K168">
         <v>231</v>
       </c>
-    </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M168">
+        <v>255</v>
+      </c>
+      <c r="N168">
+        <v>0</v>
+      </c>
+      <c r="O168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A169">
-        <v>231</v>
+        <v>255</v>
       </c>
       <c r="B169">
-        <v>157.5</v>
+        <v>167</v>
       </c>
       <c r="C169">
-        <v>98.137973493113506</v>
+        <v>60</v>
       </c>
       <c r="E169">
         <v>98.137973493113506</v>
@@ -5277,16 +6786,25 @@
       <c r="K169">
         <v>231</v>
       </c>
-    </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M169">
+        <v>255</v>
+      </c>
+      <c r="N169">
+        <v>0</v>
+      </c>
+      <c r="O169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A170">
-        <v>231</v>
+        <v>255</v>
       </c>
       <c r="B170">
-        <v>158.5</v>
+        <v>168</v>
       </c>
       <c r="C170">
-        <v>99.765907346385703</v>
+        <v>62</v>
       </c>
       <c r="E170">
         <v>99.765907346385703</v>
@@ -5306,16 +6824,25 @@
       <c r="K170">
         <v>231</v>
       </c>
-    </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M170">
+        <v>255</v>
+      </c>
+      <c r="N170">
+        <v>0</v>
+      </c>
+      <c r="O170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A171">
-        <v>232</v>
+        <v>255</v>
       </c>
       <c r="B171">
-        <v>159.5</v>
+        <v>169</v>
       </c>
       <c r="C171">
-        <v>101.397092486514</v>
+        <v>64</v>
       </c>
       <c r="E171">
         <v>101.397092486514</v>
@@ -5335,16 +6862,25 @@
       <c r="K171">
         <v>232</v>
       </c>
-    </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M171">
+        <v>255</v>
+      </c>
+      <c r="N171">
+        <v>0</v>
+      </c>
+      <c r="O171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A172">
-        <v>232</v>
+        <v>255</v>
       </c>
       <c r="B172">
-        <v>160.5</v>
+        <v>170</v>
       </c>
       <c r="C172">
-        <v>103.033085857692</v>
+        <v>66</v>
       </c>
       <c r="E172">
         <v>103.033085857692</v>
@@ -5364,16 +6900,25 @@
       <c r="K172">
         <v>232</v>
       </c>
-    </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M172">
+        <v>255</v>
+      </c>
+      <c r="N172">
+        <v>0</v>
+      </c>
+      <c r="O172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A173">
-        <v>232</v>
+        <v>255</v>
       </c>
       <c r="B173">
-        <v>161.5</v>
+        <v>171</v>
       </c>
       <c r="C173">
-        <v>104.675444404114</v>
+        <v>68</v>
       </c>
       <c r="E173">
         <v>104.675444404114</v>
@@ -5393,16 +6938,25 @@
       <c r="K173">
         <v>232</v>
       </c>
-    </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M173">
+        <v>255</v>
+      </c>
+      <c r="N173">
+        <v>0</v>
+      </c>
+      <c r="O173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A174">
-        <v>233</v>
+        <v>255</v>
       </c>
       <c r="B174">
-        <v>162.5</v>
+        <v>172</v>
       </c>
       <c r="C174">
-        <v>106.325725069976</v>
+        <v>70</v>
       </c>
       <c r="E174">
         <v>106.325725069976</v>
@@ -5422,16 +6976,25 @@
       <c r="K174">
         <v>233</v>
       </c>
-    </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M174">
+        <v>255</v>
+      </c>
+      <c r="N174">
+        <v>0</v>
+      </c>
+      <c r="O174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A175">
-        <v>233</v>
+        <v>255</v>
       </c>
       <c r="B175">
-        <v>163.5</v>
+        <v>173</v>
       </c>
       <c r="C175">
-        <v>107.985484799471</v>
+        <v>72</v>
       </c>
       <c r="E175">
         <v>107.985484799471</v>
@@ -5451,16 +7014,25 @@
       <c r="K175">
         <v>233</v>
       </c>
-    </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M175">
+        <v>255</v>
+      </c>
+      <c r="N175">
+        <v>0</v>
+      </c>
+      <c r="O175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A176">
-        <v>233</v>
+        <v>255</v>
       </c>
       <c r="B176">
-        <v>164.5</v>
+        <v>174</v>
       </c>
       <c r="C176">
-        <v>109.656280536794</v>
+        <v>74</v>
       </c>
       <c r="E176">
         <v>109.656280536794</v>
@@ -5480,16 +7052,25 @@
       <c r="K176">
         <v>233</v>
       </c>
-    </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M176">
+        <v>255</v>
+      </c>
+      <c r="N176">
+        <v>0</v>
+      </c>
+      <c r="O176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A177">
-        <v>233</v>
+        <v>255</v>
       </c>
       <c r="B177">
-        <v>165.5</v>
+        <v>175</v>
       </c>
       <c r="C177">
-        <v>111.33966922613899</v>
+        <v>79</v>
       </c>
       <c r="E177">
         <v>111.33966922613899</v>
@@ -5509,16 +7090,25 @@
       <c r="K177">
         <v>233</v>
       </c>
-    </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M177">
+        <v>255</v>
+      </c>
+      <c r="N177">
+        <v>0</v>
+      </c>
+      <c r="O177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A178">
-        <v>233</v>
+        <v>255</v>
       </c>
       <c r="B178">
-        <v>166.5</v>
+        <v>176</v>
       </c>
       <c r="C178">
-        <v>111.33966922613899</v>
+        <v>81</v>
       </c>
       <c r="E178">
         <v>111.33966922613899</v>
@@ -5538,16 +7128,25 @@
       <c r="K178">
         <v>233</v>
       </c>
-    </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M178">
+        <v>255</v>
+      </c>
+      <c r="N178">
+        <v>0</v>
+      </c>
+      <c r="O178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A179">
-        <v>234</v>
+        <v>255</v>
       </c>
       <c r="B179">
-        <v>167.5</v>
+        <v>177</v>
       </c>
       <c r="C179">
-        <v>114.750453237673</v>
+        <v>83</v>
       </c>
       <c r="E179">
         <v>114.750453237673</v>
@@ -5567,16 +7166,25 @@
       <c r="K179">
         <v>234</v>
       </c>
-    </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M179">
+        <v>255</v>
+      </c>
+      <c r="N179">
+        <v>0</v>
+      </c>
+      <c r="O179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A180">
-        <v>234</v>
+        <v>255</v>
       </c>
       <c r="B180">
-        <v>168.5</v>
+        <v>178</v>
       </c>
       <c r="C180">
-        <v>116.48096244825101</v>
+        <v>83</v>
       </c>
       <c r="E180">
         <v>116.48096244825101</v>
@@ -5596,16 +7204,25 @@
       <c r="K180">
         <v>234</v>
       </c>
-    </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M180">
+        <v>255</v>
+      </c>
+      <c r="N180">
+        <v>0</v>
+      </c>
+      <c r="O180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A181">
-        <v>234</v>
+        <v>255</v>
       </c>
       <c r="B181">
-        <v>169.5</v>
+        <v>179</v>
       </c>
       <c r="C181">
-        <v>118.230292387628</v>
+        <v>85</v>
       </c>
       <c r="E181">
         <v>118.230292387628</v>
@@ -5625,16 +7242,25 @@
       <c r="K181">
         <v>234</v>
       </c>
-    </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M181">
+        <v>255</v>
+      </c>
+      <c r="N181">
+        <v>0</v>
+      </c>
+      <c r="O181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A182">
-        <v>234</v>
+        <v>255</v>
       </c>
       <c r="B182">
-        <v>170.5</v>
+        <v>180</v>
       </c>
       <c r="C182">
-        <v>120</v>
+        <v>87</v>
       </c>
       <c r="E182">
         <v>120</v>
@@ -5654,16 +7280,25 @@
       <c r="K182">
         <v>234</v>
       </c>
-    </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M182">
+        <v>255</v>
+      </c>
+      <c r="N182">
+        <v>0</v>
+      </c>
+      <c r="O182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A183">
-        <v>235</v>
+        <v>255</v>
       </c>
       <c r="B183">
-        <v>171.5</v>
+        <v>181</v>
       </c>
       <c r="C183">
-        <v>121.797615282748</v>
+        <v>89</v>
       </c>
       <c r="E183">
         <v>121.797615282748</v>
@@ -5683,16 +7318,25 @@
       <c r="K183">
         <v>235</v>
       </c>
-    </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M183">
+        <v>255</v>
+      </c>
+      <c r="N183">
+        <v>0</v>
+      </c>
+      <c r="O183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A184">
-        <v>235</v>
+        <v>255</v>
       </c>
       <c r="B184">
-        <v>172.5</v>
+        <v>182</v>
       </c>
       <c r="C184">
-        <v>123.627374552101</v>
+        <v>91</v>
       </c>
       <c r="E184">
         <v>123.627374552101</v>
@@ -5712,16 +7356,25 @@
       <c r="K184">
         <v>235</v>
       </c>
-    </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M184">
+        <v>255</v>
+      </c>
+      <c r="N184">
+        <v>0</v>
+      </c>
+      <c r="O184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A185">
-        <v>235</v>
+        <v>255</v>
       </c>
       <c r="B185">
-        <v>173.5</v>
+        <v>183</v>
       </c>
       <c r="C185">
-        <v>125.48589423052</v>
+        <v>94</v>
       </c>
       <c r="E185">
         <v>125.48589423052</v>
@@ -5741,16 +7394,25 @@
       <c r="K185">
         <v>235</v>
       </c>
-    </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M185">
+        <v>255</v>
+      </c>
+      <c r="N185">
+        <v>0</v>
+      </c>
+      <c r="O185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A186">
-        <v>235</v>
+        <v>255</v>
       </c>
       <c r="B186">
-        <v>174.5</v>
+        <v>184</v>
       </c>
       <c r="C186">
-        <v>127.36979074046801</v>
+        <v>98</v>
       </c>
       <c r="E186">
         <v>127.36979074046801</v>
@@ -5770,16 +7432,25 @@
       <c r="K186">
         <v>235</v>
       </c>
-    </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M186">
+        <v>255</v>
+      </c>
+      <c r="N186">
+        <v>0</v>
+      </c>
+      <c r="O186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A187">
-        <v>235</v>
+        <v>255</v>
       </c>
       <c r="B187">
-        <v>175.5</v>
+        <v>185</v>
       </c>
       <c r="C187">
-        <v>129.275680504409</v>
+        <v>100</v>
       </c>
       <c r="E187">
         <v>129.275680504409</v>
@@ -5799,16 +7470,25 @@
       <c r="K187">
         <v>235</v>
       </c>
-    </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M187">
+        <v>255</v>
+      </c>
+      <c r="N187">
+        <v>0</v>
+      </c>
+      <c r="O187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A188">
-        <v>236</v>
+        <v>255</v>
       </c>
       <c r="B188">
-        <v>176.5</v>
+        <v>186</v>
       </c>
       <c r="C188">
-        <v>131.200179944805</v>
+        <v>102</v>
       </c>
       <c r="E188">
         <v>131.200179944805</v>
@@ -5828,16 +7508,25 @@
       <c r="K188">
         <v>236</v>
       </c>
-    </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M188">
+        <v>255</v>
+      </c>
+      <c r="N188">
+        <v>0</v>
+      </c>
+      <c r="O188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A189">
-        <v>236</v>
+        <v>255</v>
       </c>
       <c r="B189">
-        <v>177.5</v>
+        <v>187</v>
       </c>
       <c r="C189">
-        <v>133.139905484119</v>
+        <v>104</v>
       </c>
       <c r="E189">
         <v>133.139905484119</v>
@@ -5857,16 +7546,25 @@
       <c r="K189">
         <v>236</v>
       </c>
-    </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M189">
+        <v>255</v>
+      </c>
+      <c r="N189">
+        <v>0</v>
+      </c>
+      <c r="O189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A190">
-        <v>236</v>
+        <v>255</v>
       </c>
       <c r="B190">
-        <v>178.5</v>
+        <v>188</v>
       </c>
       <c r="C190">
-        <v>135.091473544813</v>
+        <v>106</v>
       </c>
       <c r="E190">
         <v>135.091473544813</v>
@@ -5886,16 +7584,25 @@
       <c r="K190">
         <v>236</v>
       </c>
-    </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M190">
+        <v>255</v>
+      </c>
+      <c r="N190">
+        <v>0</v>
+      </c>
+      <c r="O190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A191">
-        <v>236</v>
+        <v>255</v>
       </c>
       <c r="B191">
-        <v>179.5</v>
+        <v>189</v>
       </c>
       <c r="C191">
-        <v>137.051500549351</v>
+        <v>108</v>
       </c>
       <c r="E191">
         <v>137.051500549351</v>
@@ -5915,16 +7622,25 @@
       <c r="K191">
         <v>236</v>
       </c>
-    </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M191">
+        <v>255</v>
+      </c>
+      <c r="N191">
+        <v>0</v>
+      </c>
+      <c r="O191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A192">
-        <v>237</v>
+        <v>255</v>
       </c>
       <c r="B192">
-        <v>180.5</v>
+        <v>190</v>
       </c>
       <c r="C192">
-        <v>139.016602920194</v>
+        <v>111</v>
       </c>
       <c r="E192">
         <v>139.016602920194</v>
@@ -5944,16 +7660,25 @@
       <c r="K192">
         <v>237</v>
       </c>
-    </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M192">
+        <v>255</v>
+      </c>
+      <c r="N192">
+        <v>0</v>
+      </c>
+      <c r="O192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A193">
-        <v>237</v>
+        <v>255</v>
       </c>
       <c r="B193">
-        <v>181.5</v>
+        <v>191</v>
       </c>
       <c r="C193">
-        <v>140.983397079806</v>
+        <v>113</v>
       </c>
       <c r="E193">
         <v>140.983397079806</v>
@@ -5973,16 +7698,25 @@
       <c r="K193">
         <v>237</v>
       </c>
-    </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M193">
+        <v>255</v>
+      </c>
+      <c r="N193">
+        <v>0</v>
+      </c>
+      <c r="O193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A194">
-        <v>237</v>
+        <v>255</v>
       </c>
       <c r="B194">
-        <v>182.5</v>
+        <v>192</v>
       </c>
       <c r="C194">
-        <v>142.948499450649</v>
+        <v>117</v>
       </c>
       <c r="E194">
         <v>142.948499450649</v>
@@ -6002,16 +7736,25 @@
       <c r="K194">
         <v>237</v>
       </c>
-    </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M194">
+        <v>255</v>
+      </c>
+      <c r="N194">
+        <v>0</v>
+      </c>
+      <c r="O194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A195">
-        <v>237</v>
+        <v>255</v>
       </c>
       <c r="B195">
-        <v>183.5</v>
+        <v>193</v>
       </c>
       <c r="C195">
-        <v>144.908526455187</v>
+        <v>119</v>
       </c>
       <c r="E195">
         <v>144.908526455187</v>
@@ -6031,16 +7774,25 @@
       <c r="K195">
         <v>237</v>
       </c>
-    </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M195">
+        <v>255</v>
+      </c>
+      <c r="N195">
+        <v>0</v>
+      </c>
+      <c r="O195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A196">
-        <v>238</v>
+        <v>255</v>
       </c>
       <c r="B196">
-        <v>184.5</v>
+        <v>194</v>
       </c>
       <c r="C196">
-        <v>146.860094515881</v>
+        <v>121</v>
       </c>
       <c r="E196">
         <v>146.860094515881</v>
@@ -6060,16 +7812,25 @@
       <c r="K196">
         <v>238</v>
       </c>
-    </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M196">
+        <v>255</v>
+      </c>
+      <c r="N196">
+        <v>0</v>
+      </c>
+      <c r="O196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A197">
-        <v>238</v>
+        <v>255</v>
       </c>
       <c r="B197">
-        <v>185.5</v>
+        <v>195</v>
       </c>
       <c r="C197">
-        <v>148.799820055195</v>
+        <v>123</v>
       </c>
       <c r="E197">
         <v>148.799820055195</v>
@@ -6089,16 +7850,25 @@
       <c r="K197">
         <v>238</v>
       </c>
-    </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M197">
+        <v>255</v>
+      </c>
+      <c r="N197">
+        <v>0</v>
+      </c>
+      <c r="O197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A198">
-        <v>238</v>
+        <v>255</v>
       </c>
       <c r="B198">
-        <v>186.5</v>
+        <v>196</v>
       </c>
       <c r="C198">
-        <v>150.724319495591</v>
+        <v>123</v>
       </c>
       <c r="E198">
         <v>150.724319495591</v>
@@ -6118,16 +7888,25 @@
       <c r="K198">
         <v>238</v>
       </c>
-    </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M198">
+        <v>255</v>
+      </c>
+      <c r="N198">
+        <v>0</v>
+      </c>
+      <c r="O198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A199">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="B199">
-        <v>187.5</v>
+        <v>197</v>
       </c>
       <c r="C199">
-        <v>152.63020925953199</v>
+        <v>125</v>
       </c>
       <c r="E199">
         <v>152.63020925953199</v>
@@ -6147,16 +7926,25 @@
       <c r="K199">
         <v>239</v>
       </c>
-    </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M199">
+        <v>255</v>
+      </c>
+      <c r="N199">
+        <v>0</v>
+      </c>
+      <c r="O199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A200">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="B200">
-        <v>188.5</v>
+        <v>198</v>
       </c>
       <c r="C200">
-        <v>154.51410576948001</v>
+        <v>128</v>
       </c>
       <c r="E200">
         <v>154.51410576948001</v>
@@ -6176,16 +7964,25 @@
       <c r="K200">
         <v>239</v>
       </c>
-    </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M200">
+        <v>255</v>
+      </c>
+      <c r="N200">
+        <v>0</v>
+      </c>
+      <c r="O200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A201">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="B201">
-        <v>189.5</v>
+        <v>199</v>
       </c>
       <c r="C201">
-        <v>156.372625447899</v>
+        <v>130</v>
       </c>
       <c r="E201">
         <v>156.372625447899</v>
@@ -6205,16 +8002,25 @@
       <c r="K201">
         <v>239</v>
       </c>
-    </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M201">
+        <v>255</v>
+      </c>
+      <c r="N201">
+        <v>0</v>
+      </c>
+      <c r="O201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A202">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="B202">
-        <v>190.5</v>
+        <v>200</v>
       </c>
       <c r="C202">
-        <v>158.20238471725199</v>
+        <v>132</v>
       </c>
       <c r="E202">
         <v>158.20238471725199</v>
@@ -6234,16 +8040,25 @@
       <c r="K202">
         <v>239</v>
       </c>
-    </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M202">
+        <v>255</v>
+      </c>
+      <c r="N202">
+        <v>0</v>
+      </c>
+      <c r="O202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A203">
-        <v>240</v>
+        <v>255</v>
       </c>
       <c r="B203">
-        <v>191.5</v>
+        <v>201</v>
       </c>
       <c r="C203">
-        <v>160</v>
+        <v>134</v>
       </c>
       <c r="E203">
         <v>160</v>
@@ -6263,16 +8078,25 @@
       <c r="K203">
         <v>240</v>
       </c>
-    </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M203">
+        <v>255</v>
+      </c>
+      <c r="N203">
+        <v>0</v>
+      </c>
+      <c r="O203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A204">
-        <v>240</v>
+        <v>255</v>
       </c>
       <c r="B204">
-        <v>192.5</v>
+        <v>202</v>
       </c>
       <c r="C204">
-        <v>164</v>
+        <v>138</v>
       </c>
       <c r="E204">
         <v>164</v>
@@ -6292,16 +8116,25 @@
       <c r="K204">
         <v>240</v>
       </c>
-    </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M204">
+        <v>255</v>
+      </c>
+      <c r="N204">
+        <v>0</v>
+      </c>
+      <c r="O204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A205">
-        <v>240</v>
+        <v>255</v>
       </c>
       <c r="B205">
-        <v>193.5</v>
+        <v>203</v>
       </c>
       <c r="C205">
-        <v>165</v>
+        <v>138</v>
       </c>
       <c r="E205">
         <v>165</v>
@@ -6321,16 +8154,25 @@
       <c r="K205">
         <v>240</v>
       </c>
-    </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M205">
+        <v>255</v>
+      </c>
+      <c r="N205">
+        <v>0</v>
+      </c>
+      <c r="O205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A206">
-        <v>241</v>
+        <v>255</v>
       </c>
       <c r="B206">
-        <v>194.5</v>
+        <v>204</v>
       </c>
       <c r="C206">
-        <v>167</v>
+        <v>140</v>
       </c>
       <c r="E206">
         <v>167</v>
@@ -6350,16 +8192,25 @@
       <c r="K206">
         <v>241</v>
       </c>
-    </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M206">
+        <v>255</v>
+      </c>
+      <c r="N206">
+        <v>0</v>
+      </c>
+      <c r="O206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A207">
-        <v>241</v>
+        <v>255</v>
       </c>
       <c r="B207">
-        <v>195.5</v>
+        <v>205</v>
       </c>
       <c r="C207">
-        <v>169</v>
+        <v>145</v>
       </c>
       <c r="E207">
         <v>169</v>
@@ -6379,16 +8230,25 @@
       <c r="K207">
         <v>241</v>
       </c>
-    </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M207">
+        <v>255</v>
+      </c>
+      <c r="N207">
+        <v>0</v>
+      </c>
+      <c r="O207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A208">
-        <v>241</v>
+        <v>255</v>
       </c>
       <c r="B208">
-        <v>196.5</v>
+        <v>206</v>
       </c>
       <c r="C208">
-        <v>170</v>
+        <v>147</v>
       </c>
       <c r="E208">
         <v>170</v>
@@ -6408,16 +8268,25 @@
       <c r="K208">
         <v>241</v>
       </c>
-    </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M208">
+        <v>255</v>
+      </c>
+      <c r="N208">
+        <v>0</v>
+      </c>
+      <c r="O208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A209">
-        <v>242</v>
+        <v>255</v>
       </c>
       <c r="B209">
-        <v>197.5</v>
+        <v>207</v>
       </c>
       <c r="C209">
-        <v>172</v>
+        <v>149</v>
       </c>
       <c r="E209">
         <v>172</v>
@@ -6437,16 +8306,25 @@
       <c r="K209">
         <v>242</v>
       </c>
-    </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M209">
+        <v>255</v>
+      </c>
+      <c r="N209">
+        <v>0</v>
+      </c>
+      <c r="O209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A210">
-        <v>242</v>
+        <v>255</v>
       </c>
       <c r="B210">
-        <v>198.5</v>
+        <v>208</v>
       </c>
       <c r="C210">
-        <v>174</v>
+        <v>151</v>
       </c>
       <c r="E210">
         <v>174</v>
@@ -6466,16 +8344,25 @@
       <c r="K210">
         <v>242</v>
       </c>
-    </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M210">
+        <v>255</v>
+      </c>
+      <c r="N210">
+        <v>0</v>
+      </c>
+      <c r="O210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A211">
-        <v>242</v>
+        <v>255</v>
       </c>
       <c r="B211">
-        <v>199.5</v>
+        <v>209</v>
       </c>
       <c r="C211">
-        <v>176</v>
+        <v>153</v>
       </c>
       <c r="E211">
         <v>176</v>
@@ -6495,16 +8382,25 @@
       <c r="K211">
         <v>242</v>
       </c>
-    </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M211">
+        <v>255</v>
+      </c>
+      <c r="N211">
+        <v>0</v>
+      </c>
+      <c r="O211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A212">
-        <v>242</v>
+        <v>255</v>
       </c>
       <c r="B212">
-        <v>200.5</v>
+        <v>210</v>
       </c>
       <c r="C212">
-        <v>177</v>
+        <v>155</v>
       </c>
       <c r="E212">
         <v>177</v>
@@ -6524,16 +8420,25 @@
       <c r="K212">
         <v>242</v>
       </c>
-    </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M212">
+        <v>255</v>
+      </c>
+      <c r="N212">
+        <v>0</v>
+      </c>
+      <c r="O212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A213">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="B213">
-        <v>201.5</v>
+        <v>211</v>
       </c>
       <c r="C213">
-        <v>179</v>
+        <v>157</v>
       </c>
       <c r="E213">
         <v>179</v>
@@ -6553,16 +8458,25 @@
       <c r="K213">
         <v>243</v>
       </c>
-    </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M213">
+        <v>255</v>
+      </c>
+      <c r="N213">
+        <v>0</v>
+      </c>
+      <c r="O213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A214">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="B214">
-        <v>202.5</v>
+        <v>212</v>
       </c>
       <c r="C214">
-        <v>181</v>
+        <v>158</v>
       </c>
       <c r="E214">
         <v>181</v>
@@ -6582,16 +8496,25 @@
       <c r="K214">
         <v>243</v>
       </c>
-    </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M214">
+        <v>255</v>
+      </c>
+      <c r="N214">
+        <v>0</v>
+      </c>
+      <c r="O214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A215">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="B215">
-        <v>203.5</v>
+        <v>213</v>
       </c>
       <c r="C215">
-        <v>182</v>
+        <v>159</v>
       </c>
       <c r="E215">
         <v>182</v>
@@ -6611,16 +8534,25 @@
       <c r="K215">
         <v>243</v>
       </c>
-    </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M215">
+        <v>255</v>
+      </c>
+      <c r="N215">
+        <v>0</v>
+      </c>
+      <c r="O215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A216">
-        <v>244</v>
+        <v>255</v>
       </c>
       <c r="B216">
-        <v>204.5</v>
+        <v>214</v>
       </c>
       <c r="C216">
-        <v>184</v>
+        <v>164</v>
       </c>
       <c r="E216">
         <v>184</v>
@@ -6640,16 +8572,25 @@
       <c r="K216">
         <v>244</v>
       </c>
-    </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M216">
+        <v>255</v>
+      </c>
+      <c r="N216">
+        <v>0</v>
+      </c>
+      <c r="O216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A217">
-        <v>244</v>
+        <v>255</v>
       </c>
       <c r="B217">
-        <v>205.5</v>
+        <v>215</v>
       </c>
       <c r="C217">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="E217">
         <v>185</v>
@@ -6669,16 +8610,25 @@
       <c r="K217">
         <v>244</v>
       </c>
-    </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M217">
+        <v>255</v>
+      </c>
+      <c r="N217">
+        <v>0</v>
+      </c>
+      <c r="O217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A218">
-        <v>244</v>
+        <v>255</v>
       </c>
       <c r="B218">
-        <v>206.5</v>
+        <v>216</v>
       </c>
       <c r="C218">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="E218">
         <v>187</v>
@@ -6698,16 +8648,25 @@
       <c r="K218">
         <v>244</v>
       </c>
-    </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M218">
+        <v>255</v>
+      </c>
+      <c r="N218">
+        <v>0</v>
+      </c>
+      <c r="O218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A219">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="B219">
-        <v>207.5</v>
+        <v>217</v>
       </c>
       <c r="C219">
-        <v>189</v>
+        <v>170</v>
       </c>
       <c r="E219">
         <v>189</v>
@@ -6727,16 +8686,25 @@
       <c r="K219">
         <v>245</v>
       </c>
-    </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M219">
+        <v>255</v>
+      </c>
+      <c r="N219">
+        <v>0</v>
+      </c>
+      <c r="O219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A220">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="B220">
-        <v>208.5</v>
+        <v>218</v>
       </c>
       <c r="C220">
-        <v>190</v>
+        <v>172</v>
       </c>
       <c r="E220">
         <v>190</v>
@@ -6756,16 +8724,25 @@
       <c r="K220">
         <v>245</v>
       </c>
-    </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M220">
+        <v>255</v>
+      </c>
+      <c r="N220">
+        <v>0</v>
+      </c>
+      <c r="O220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A221">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="B221">
-        <v>209.5</v>
+        <v>219</v>
       </c>
       <c r="C221">
-        <v>192</v>
+        <v>174</v>
       </c>
       <c r="E221">
         <v>192</v>
@@ -6785,16 +8762,25 @@
       <c r="K221">
         <v>245</v>
       </c>
-    </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M221">
+        <v>255</v>
+      </c>
+      <c r="N221">
+        <v>0</v>
+      </c>
+      <c r="O221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A222">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="B222">
-        <v>210.5</v>
+        <v>220</v>
       </c>
       <c r="C222">
-        <v>194</v>
+        <v>176</v>
       </c>
       <c r="E222">
         <v>194</v>
@@ -6814,16 +8800,25 @@
       <c r="K222">
         <v>246</v>
       </c>
-    </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M222">
+        <v>255</v>
+      </c>
+      <c r="N222">
+        <v>0</v>
+      </c>
+      <c r="O222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A223">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="B223">
-        <v>211.5</v>
+        <v>221</v>
       </c>
       <c r="C223">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="E223">
         <v>195</v>
@@ -6843,16 +8838,25 @@
       <c r="K223">
         <v>246</v>
       </c>
-    </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M223">
+        <v>255</v>
+      </c>
+      <c r="N223">
+        <v>0</v>
+      </c>
+      <c r="O223">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A224">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="B224">
-        <v>212.5</v>
+        <v>222</v>
       </c>
       <c r="C224">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="E224">
         <v>197</v>
@@ -6872,16 +8876,25 @@
       <c r="K224">
         <v>246</v>
       </c>
-    </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M224">
+        <v>255</v>
+      </c>
+      <c r="N224">
+        <v>0</v>
+      </c>
+      <c r="O224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A225">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="B225">
-        <v>213.5</v>
+        <v>223</v>
       </c>
       <c r="C225">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="E225">
         <v>198</v>
@@ -6901,16 +8914,25 @@
       <c r="K225">
         <v>246</v>
       </c>
-    </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M225">
+        <v>255</v>
+      </c>
+      <c r="N225">
+        <v>0</v>
+      </c>
+      <c r="O225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A226">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="B226">
-        <v>214.5</v>
+        <v>224</v>
       </c>
       <c r="C226">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="E226">
         <v>200</v>
@@ -6930,16 +8952,25 @@
       <c r="K226">
         <v>247</v>
       </c>
-    </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M226">
+        <v>255</v>
+      </c>
+      <c r="N226">
+        <v>0</v>
+      </c>
+      <c r="O226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A227">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="B227">
-        <v>215.5</v>
+        <v>225</v>
       </c>
       <c r="C227">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="E227">
         <v>202</v>
@@ -6959,16 +8990,25 @@
       <c r="K227">
         <v>247</v>
       </c>
-    </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M227">
+        <v>255</v>
+      </c>
+      <c r="N227">
+        <v>0</v>
+      </c>
+      <c r="O227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A228">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="B228">
-        <v>216.5</v>
+        <v>226</v>
       </c>
       <c r="C228">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="E228">
         <v>203</v>
@@ -6988,16 +9028,25 @@
       <c r="K228">
         <v>247</v>
       </c>
-    </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M228">
+        <v>255</v>
+      </c>
+      <c r="N228">
+        <v>0</v>
+      </c>
+      <c r="O228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A229">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="B229">
-        <v>217.5</v>
+        <v>227</v>
       </c>
       <c r="C229">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="E229">
         <v>205</v>
@@ -7017,16 +9066,25 @@
       <c r="K229">
         <v>248</v>
       </c>
-    </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M229">
+        <v>255</v>
+      </c>
+      <c r="N229">
+        <v>0</v>
+      </c>
+      <c r="O229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A230">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="B230">
-        <v>218.5</v>
+        <v>228</v>
       </c>
       <c r="C230">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="E230">
         <v>206</v>
@@ -7046,16 +9104,25 @@
       <c r="K230">
         <v>248</v>
       </c>
-    </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M230">
+        <v>255</v>
+      </c>
+      <c r="N230">
+        <v>0</v>
+      </c>
+      <c r="O230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A231">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="B231">
-        <v>219.5</v>
+        <v>229</v>
       </c>
       <c r="C231">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="E231">
         <v>207</v>
@@ -7075,16 +9142,25 @@
       <c r="K231">
         <v>249</v>
       </c>
-    </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M231">
+        <v>255</v>
+      </c>
+      <c r="N231">
+        <v>0</v>
+      </c>
+      <c r="O231">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A232">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="B232">
-        <v>220.5</v>
+        <v>230</v>
       </c>
       <c r="C232">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="E232">
         <v>209</v>
@@ -7104,16 +9180,25 @@
       <c r="K232">
         <v>249</v>
       </c>
-    </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M232">
+        <v>255</v>
+      </c>
+      <c r="N232">
+        <v>0</v>
+      </c>
+      <c r="O232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A233">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="B233">
-        <v>221.5</v>
+        <v>231</v>
       </c>
       <c r="C233">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="E233">
         <v>210</v>
@@ -7133,16 +9218,25 @@
       <c r="K233">
         <v>249</v>
       </c>
-    </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M233">
+        <v>255</v>
+      </c>
+      <c r="N233">
+        <v>0</v>
+      </c>
+      <c r="O233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A234">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="B234">
-        <v>222.5</v>
+        <v>232</v>
       </c>
       <c r="C234">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="E234">
         <v>212</v>
@@ -7162,16 +9256,25 @@
       <c r="K234">
         <v>249</v>
       </c>
-    </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M234">
+        <v>255</v>
+      </c>
+      <c r="N234">
+        <v>0</v>
+      </c>
+      <c r="O234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A235">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="B235">
-        <v>223.5</v>
+        <v>233</v>
       </c>
       <c r="C235">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="E235">
         <v>213</v>
@@ -7191,16 +9294,25 @@
       <c r="K235">
         <v>250</v>
       </c>
-    </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M235">
+        <v>255</v>
+      </c>
+      <c r="N235">
+        <v>0</v>
+      </c>
+      <c r="O235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A236">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="B236">
-        <v>224.5</v>
+        <v>234</v>
       </c>
       <c r="C236">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="E236">
         <v>214</v>
@@ -7220,16 +9332,25 @@
       <c r="K236">
         <v>250</v>
       </c>
-    </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M236">
+        <v>255</v>
+      </c>
+      <c r="N236">
+        <v>0</v>
+      </c>
+      <c r="O236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A237">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="B237">
-        <v>225.5</v>
+        <v>235</v>
       </c>
       <c r="C237">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="E237">
         <v>216</v>
@@ -7249,16 +9370,25 @@
       <c r="K237">
         <v>250</v>
       </c>
-    </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M237">
+        <v>255</v>
+      </c>
+      <c r="N237">
+        <v>0</v>
+      </c>
+      <c r="O237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A238">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="B238">
-        <v>226.5</v>
+        <v>236</v>
       </c>
       <c r="C238">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="E238">
         <v>217</v>
@@ -7278,16 +9408,25 @@
       <c r="K238">
         <v>250</v>
       </c>
-    </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M238">
+        <v>255</v>
+      </c>
+      <c r="N238">
+        <v>0</v>
+      </c>
+      <c r="O238">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A239">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="B239">
-        <v>227.5</v>
+        <v>237</v>
       </c>
       <c r="C239">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E239">
         <v>218</v>
@@ -7307,16 +9446,25 @@
       <c r="K239">
         <v>251</v>
       </c>
-    </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M239">
+        <v>255</v>
+      </c>
+      <c r="N239">
+        <v>0</v>
+      </c>
+      <c r="O239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A240">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="B240">
-        <v>228.5</v>
+        <v>238</v>
       </c>
       <c r="C240">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="E240">
         <v>220</v>
@@ -7336,16 +9484,25 @@
       <c r="K240">
         <v>251</v>
       </c>
-    </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M240">
+        <v>255</v>
+      </c>
+      <c r="N240">
+        <v>0</v>
+      </c>
+      <c r="O240">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A241">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="B241">
-        <v>229.5</v>
+        <v>239</v>
       </c>
       <c r="C241">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E241">
         <v>221</v>
@@ -7365,16 +9522,25 @@
       <c r="K241">
         <v>251</v>
       </c>
-    </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M241">
+        <v>255</v>
+      </c>
+      <c r="N241">
+        <v>0</v>
+      </c>
+      <c r="O241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A242">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="B242">
-        <v>230.5</v>
+        <v>240</v>
       </c>
       <c r="C242">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E242">
         <v>223</v>
@@ -7394,16 +9560,25 @@
       <c r="K242">
         <v>251</v>
       </c>
-    </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M242">
+        <v>255</v>
+      </c>
+      <c r="N242">
+        <v>0</v>
+      </c>
+      <c r="O242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A243">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="B243">
-        <v>231.5</v>
+        <v>241</v>
       </c>
       <c r="C243">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E243">
         <v>224</v>
@@ -7423,16 +9598,25 @@
       <c r="K243">
         <v>252</v>
       </c>
-    </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M243">
+        <v>255</v>
+      </c>
+      <c r="N243">
+        <v>0</v>
+      </c>
+      <c r="O243">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A244">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="B244">
-        <v>232.5</v>
+        <v>242</v>
       </c>
       <c r="C244">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E244">
         <v>226</v>
@@ -7452,16 +9636,25 @@
       <c r="K244">
         <v>252</v>
       </c>
-    </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M244">
+        <v>255</v>
+      </c>
+      <c r="N244">
+        <v>0</v>
+      </c>
+      <c r="O244">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A245">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="B245">
-        <v>233.5</v>
+        <v>243</v>
       </c>
       <c r="C245">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="E245">
         <v>227</v>
@@ -7481,16 +9674,25 @@
       <c r="K245">
         <v>252</v>
       </c>
-    </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M245">
+        <v>255</v>
+      </c>
+      <c r="N245">
+        <v>0</v>
+      </c>
+      <c r="O245">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A246">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B246">
-        <v>234.5</v>
+        <v>244</v>
       </c>
       <c r="C246">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="E246">
         <v>229</v>
@@ -7510,16 +9712,25 @@
       <c r="K246">
         <v>253</v>
       </c>
-    </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M246">
+        <v>255</v>
+      </c>
+      <c r="N246">
+        <v>0</v>
+      </c>
+      <c r="O246">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A247">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B247">
-        <v>235.5</v>
+        <v>245</v>
       </c>
       <c r="C247">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="E247">
         <v>231</v>
@@ -7539,16 +9750,25 @@
       <c r="K247">
         <v>253</v>
       </c>
-    </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M247">
+        <v>255</v>
+      </c>
+      <c r="N247">
+        <v>0</v>
+      </c>
+      <c r="O247">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A248">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B248">
-        <v>236.5</v>
+        <v>246</v>
       </c>
       <c r="C248">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="E248">
         <v>232</v>
@@ -7568,16 +9788,25 @@
       <c r="K248">
         <v>253</v>
       </c>
-    </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M248">
+        <v>255</v>
+      </c>
+      <c r="N248">
+        <v>0</v>
+      </c>
+      <c r="O248">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A249">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B249">
-        <v>237.5</v>
+        <v>247</v>
       </c>
       <c r="C249">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E249">
         <v>234</v>
@@ -7597,16 +9826,25 @@
       <c r="K249">
         <v>253</v>
       </c>
-    </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M249">
+        <v>255</v>
+      </c>
+      <c r="N249">
+        <v>0</v>
+      </c>
+      <c r="O249">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A250">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B250">
-        <v>238.5</v>
+        <v>248</v>
       </c>
       <c r="C250">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E250">
         <v>236</v>
@@ -7626,16 +9864,25 @@
       <c r="K250">
         <v>254</v>
       </c>
-    </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M250">
+        <v>255</v>
+      </c>
+      <c r="N250">
+        <v>0</v>
+      </c>
+      <c r="O250">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A251">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B251">
-        <v>239.5</v>
+        <v>249</v>
       </c>
       <c r="C251">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="E251">
         <v>238</v>
@@ -7655,16 +9902,25 @@
       <c r="K251">
         <v>254</v>
       </c>
-    </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M251">
+        <v>255</v>
+      </c>
+      <c r="N251">
+        <v>0</v>
+      </c>
+      <c r="O251">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A252">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B252">
-        <v>240.5</v>
+        <v>250</v>
       </c>
       <c r="C252">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="E252">
         <v>240</v>
@@ -7684,16 +9940,25 @@
       <c r="K252">
         <v>254</v>
       </c>
-    </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M252">
+        <v>255</v>
+      </c>
+      <c r="N252">
+        <v>0</v>
+      </c>
+      <c r="O252">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>255</v>
       </c>
       <c r="B253">
-        <v>241.5</v>
+        <v>251</v>
       </c>
       <c r="C253">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E253">
         <v>245</v>
@@ -7713,16 +9978,25 @@
       <c r="K253">
         <v>255</v>
       </c>
-    </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M253">
+        <v>255</v>
+      </c>
+      <c r="N253">
+        <v>0</v>
+      </c>
+      <c r="O253">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>255</v>
       </c>
       <c r="B254">
-        <v>242.5</v>
+        <v>252</v>
       </c>
       <c r="C254">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E254">
         <v>247</v>
@@ -7742,13 +10016,22 @@
       <c r="K254">
         <v>255</v>
       </c>
-    </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M254">
+        <v>255</v>
+      </c>
+      <c r="N254">
+        <v>0</v>
+      </c>
+      <c r="O254">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>255</v>
       </c>
       <c r="B255">
-        <v>243.5</v>
+        <v>253</v>
       </c>
       <c r="C255">
         <v>250</v>
@@ -7771,16 +10054,25 @@
       <c r="K255">
         <v>255</v>
       </c>
-    </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M255">
+        <v>255</v>
+      </c>
+      <c r="N255">
+        <v>0</v>
+      </c>
+      <c r="O255">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>255</v>
       </c>
       <c r="B256">
-        <v>244.5</v>
+        <v>254</v>
       </c>
       <c r="C256">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E256">
         <v>252</v>
@@ -7800,8 +10092,17 @@
       <c r="K256">
         <v>255</v>
       </c>
-    </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M256">
+        <v>255</v>
+      </c>
+      <c r="N256">
+        <v>0</v>
+      </c>
+      <c r="O256">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>255</v>
       </c>
@@ -7824,13 +10125,22 @@
         <v>255</v>
       </c>
       <c r="J257">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="K257">
         <v>255</v>
       </c>
-    </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M257">
+        <v>255</v>
+      </c>
+      <c r="N257">
+        <v>0</v>
+      </c>
+      <c r="O257">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>255</v>
       </c>
@@ -7847,23 +10157,32 @@
         <v>255</v>
       </c>
       <c r="G258">
-        <v>255</v>
+        <v>246.5</v>
       </c>
       <c r="I258">
         <v>255</v>
       </c>
       <c r="J258">
-        <v>255</v>
+        <v>246.5</v>
       </c>
       <c r="K258">
         <v>255</v>
+      </c>
+      <c r="M258">
+        <v>255</v>
+      </c>
+      <c r="N258">
+        <v>0</v>
+      </c>
+      <c r="O258">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A1:C1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A1:C1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
